--- a/data/漢字.xlsx
+++ b/data/漢字.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Rubén\Librerías\Documentos\Carpeta Compartida Linux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Repositorios\kanjis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1995779D-4CA3-4260-9B43-BFD3E7B5F617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF581ABC-D952-4A9F-A3C3-69DDFB41C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="漢字" sheetId="1" r:id="rId1"/>
@@ -42,12 +42,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="1046">
   <si>
     <t>次</t>
-  </si>
-  <si>
-    <t>くにょみ</t>
-  </si>
-  <si>
-    <t>おにょみ</t>
   </si>
   <si>
     <t>漢字</t>
@@ -3206,6 +3200,12 @@
   </si>
   <si>
     <t>もち　（い）２</t>
+  </si>
+  <si>
+    <t>くんよみ</t>
+  </si>
+  <si>
+    <t>おんよみ</t>
   </si>
 </sst>
 </file>
@@ -3757,7 +3757,7 @@
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -3775,34 +3775,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>1044</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>4</v>
-      </c>
       <c r="K1" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3810,17 +3810,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="12">
         <v>0</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K2" s="7">
         <v>0</v>
@@ -3845,16 +3845,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="12">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K3" s="7">
         <v>0</v>
@@ -3880,17 +3880,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="12">
         <v>0</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K4" s="7">
         <v>0</v>
@@ -3915,17 +3915,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="12">
         <v>0</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K5" s="7">
         <v>0</v>
@@ -3950,17 +3950,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="12">
         <v>0</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K6" s="7">
         <v>0</v>
@@ -3985,17 +3985,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="12">
         <v>0</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K7" s="7">
         <v>0</v>
@@ -4020,17 +4020,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="F8" s="12">
         <v>0</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K8" s="7">
         <v>0</v>
@@ -4055,17 +4055,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" s="12">
         <v>0</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K9" s="7">
         <v>0</v>
@@ -4090,17 +4090,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" s="12">
         <v>0</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K10" s="7">
         <v>0</v>
@@ -4125,17 +4125,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="F11" s="12">
         <v>0</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K11" s="7">
         <v>0</v>
@@ -4160,17 +4160,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" s="12">
         <v>0</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K12" s="7">
         <v>0</v>
@@ -4195,17 +4195,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="F13" s="12">
         <v>0</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K13" s="7">
         <v>0</v>
@@ -4230,17 +4230,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="F14" s="12">
         <v>0</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K14" s="7">
         <v>0</v>
@@ -4265,17 +4265,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="F15" s="12">
         <v>0</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K15" s="7">
         <v>0</v>
@@ -4300,16 +4300,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="12">
         <v>0</v>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K16" s="7">
         <v>0</v>
@@ -4335,17 +4335,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="F17" s="12">
         <v>0</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K17" s="7">
         <v>0</v>
@@ -4370,17 +4370,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="F18" s="12">
         <v>0</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K18" s="7">
         <v>0</v>
@@ -4405,17 +4405,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="F19" s="12">
         <v>0</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K19" s="7">
         <v>0</v>
@@ -4440,17 +4440,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="F20" s="12">
         <v>0</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K20" s="7">
         <v>0</v>
@@ -4475,17 +4475,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="F21" s="12">
         <v>0</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K21" s="7">
         <v>0</v>
@@ -4510,17 +4510,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="F22" s="12">
         <v>0</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K22" s="7">
         <v>0</v>
@@ -4545,16 +4545,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F23" s="12">
         <v>0</v>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K23" s="7">
         <v>0</v>
@@ -4580,17 +4580,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="F24" s="12">
         <v>0</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K24" s="7">
         <v>0</v>
@@ -4615,17 +4615,17 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="F25" s="12">
         <v>0</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K25" s="7">
         <v>0</v>
@@ -4650,17 +4650,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="F26" s="12">
         <v>0</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K26" s="7">
         <v>0</v>
@@ -4685,16 +4685,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F27" s="12">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K27" s="7">
         <v>0</v>
@@ -4720,16 +4720,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F28" s="12">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K28" s="7">
         <v>0</v>
@@ -4755,16 +4755,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F29" s="12">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K29" s="7">
         <v>0</v>
@@ -4790,17 +4790,17 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="F30" s="12">
         <v>0</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K30" s="7">
         <v>0</v>
@@ -4825,17 +4825,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="F31" s="12">
         <v>0</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K31" s="7">
         <v>0</v>
@@ -4860,17 +4860,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>91</v>
-      </c>
       <c r="F32" s="12">
         <v>0</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K32" s="7">
         <v>0</v>
@@ -4895,17 +4895,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="F33" s="12">
         <v>0</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K33" s="7">
         <v>0</v>
@@ -4930,16 +4930,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F34" s="12">
         <v>0</v>
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K34" s="7">
         <v>0</v>
@@ -4965,16 +4965,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F35" s="12">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K35" s="7">
         <v>0</v>
@@ -5000,17 +5000,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="F36" s="12">
         <v>0</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K36" s="7">
         <v>0</v>
@@ -5035,16 +5035,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F37" s="12">
         <v>0</v>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K37" s="7">
         <v>0</v>
@@ -5070,16 +5070,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F38" s="12">
         <v>0</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K38" s="7">
         <v>0</v>
@@ -5105,17 +5105,17 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="F39" s="12">
         <v>0</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K39" s="7">
         <v>0</v>
@@ -5140,17 +5140,17 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="F40" s="12">
         <v>0</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K40" s="7">
         <v>0</v>
@@ -5175,17 +5175,17 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="F41" s="12">
         <v>0</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K41" s="7">
         <v>0</v>
@@ -5210,16 +5210,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F42" s="12">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K42" s="7">
         <v>0</v>
@@ -5245,17 +5245,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="F43" s="12">
         <v>0</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K43" s="7">
         <v>0</v>
@@ -5280,17 +5280,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="F44" s="12">
         <v>0</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K44" s="7">
         <v>0</v>
@@ -5315,17 +5315,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>124</v>
-      </c>
       <c r="F45" s="12">
         <v>0</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K45" s="7">
         <v>0</v>
@@ -5350,17 +5350,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>127</v>
-      </c>
       <c r="F46" s="12">
         <v>0</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K46" s="7">
         <v>0</v>
@@ -5385,17 +5385,17 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="F47" s="12">
         <v>0</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K47" s="7">
         <v>0</v>
@@ -5420,17 +5420,17 @@
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="F48" s="12">
         <v>0</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K48" s="7">
         <v>0</v>
@@ -5455,17 +5455,17 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="F49" s="12">
         <v>0</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K49" s="7">
         <v>0</v>
@@ -5490,16 +5490,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F50" s="12">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K50" s="7">
         <v>0</v>
@@ -5525,17 +5525,17 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="F51" s="12">
         <v>0</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K51" s="7">
         <v>0</v>
@@ -5560,17 +5560,17 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="F52" s="12">
         <v>0</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K52" s="7">
         <v>0</v>
@@ -5595,16 +5595,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F53" s="12">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K53" s="7">
         <v>0</v>
@@ -5630,16 +5630,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F54" s="12">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K54" s="7">
         <v>0</v>
@@ -5665,17 +5665,17 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="F55" s="12">
         <v>0</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K55" s="7">
         <v>0</v>
@@ -5700,16 +5700,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F56" s="12">
         <v>0</v>
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K56" s="7">
         <v>0</v>
@@ -5735,16 +5735,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F57" s="12">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K57" s="7">
         <v>0</v>
@@ -5770,17 +5770,17 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>156</v>
-      </c>
       <c r="F58" s="12">
         <v>0</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K58" s="7">
         <v>0</v>
@@ -5805,17 +5805,17 @@
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>159</v>
-      </c>
       <c r="F59" s="12">
         <v>0</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -5840,16 +5840,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F60" s="12">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K60" s="7">
         <v>0</v>
@@ -5875,16 +5875,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F61" s="12">
         <v>0</v>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K61" s="7">
         <v>0</v>
@@ -5910,16 +5910,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F62" s="12">
         <v>0</v>
@@ -5934,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K62" s="7">
         <v>0</v>
@@ -5945,16 +5945,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F63" s="12">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K63" s="7">
         <v>0</v>
@@ -5980,17 +5980,17 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>169</v>
-      </c>
       <c r="F64" s="12">
         <v>0</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K64" s="7">
         <v>0</v>
@@ -6015,16 +6015,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F65" s="12">
         <v>0</v>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K65" s="7">
         <v>0</v>
@@ -6050,16 +6050,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F66" s="12">
         <v>0</v>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K66" s="7">
         <v>0</v>
@@ -6085,17 +6085,17 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E67" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>176</v>
-      </c>
       <c r="F67" s="12">
         <v>0</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K67" s="7">
         <v>0</v>
@@ -6120,16 +6120,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F68" s="12">
         <v>0</v>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K68" s="7">
         <v>0</v>
@@ -6155,16 +6155,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F69" s="12">
         <v>0</v>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K69" s="7">
         <v>0</v>
@@ -6190,16 +6190,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F70" s="12">
         <v>0</v>
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K70" s="7">
         <v>0</v>
@@ -6225,16 +6225,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F71" s="12">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K71" s="7">
         <v>0</v>
@@ -6260,16 +6260,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F72" s="12">
         <v>0</v>
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K72" s="7">
         <v>0</v>
@@ -6295,16 +6295,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F73" s="12">
         <v>0</v>
@@ -6319,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K73" s="7">
         <v>0</v>
@@ -6330,16 +6330,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F74" s="12">
         <v>0</v>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K74" s="7">
         <v>0</v>
@@ -6365,16 +6365,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C75" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F75" s="12">
         <v>0</v>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K75" s="7">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F76" s="12">
         <v>0</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K76" s="7">
         <v>0</v>
@@ -6435,16 +6435,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F77" s="12">
         <v>0</v>
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K77" s="7">
         <v>0</v>
@@ -6470,16 +6470,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F78" s="12">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K78" s="7">
         <v>0</v>
@@ -6505,16 +6505,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F79" s="12">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K79" s="7">
         <v>0</v>
@@ -6540,16 +6540,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F80" s="12">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K80" s="7">
         <v>0</v>
@@ -6575,16 +6575,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F81" s="12">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K81" s="7">
         <v>0</v>
@@ -6610,16 +6610,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F82" s="12">
         <v>0</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K82" s="7">
         <v>0</v>
@@ -6645,16 +6645,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F83" s="12">
         <v>0</v>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K83" s="7">
         <v>0</v>
@@ -6680,17 +6680,17 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E84" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>206</v>
-      </c>
       <c r="F84" s="12">
         <v>0</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K84" s="7">
         <v>0</v>
@@ -6715,16 +6715,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F85" s="12">
         <v>0</v>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K85" s="7">
         <v>0</v>
@@ -6750,16 +6750,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F86" s="12">
         <v>0</v>
@@ -6774,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K86" s="7">
         <v>0</v>
@@ -6785,17 +6785,17 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C87" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D87" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>300</v>
-      </c>
       <c r="F87" s="12">
         <v>0</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K87" s="7">
         <v>0</v>
@@ -6820,16 +6820,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F88" s="12">
         <v>0</v>
@@ -6844,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K88" s="7">
         <v>0</v>
@@ -6855,16 +6855,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F89" s="12">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="K89" s="7">
         <v>0</v>
@@ -6890,16 +6890,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C90" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>312</v>
-      </c>
       <c r="D90" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F90" s="12">
         <v>0</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="K90" s="7">
         <v>0</v>
@@ -6925,16 +6925,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>313</v>
-      </c>
       <c r="D91" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F91" s="12">
         <v>0</v>
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="K91" s="7">
         <v>0</v>
@@ -6960,16 +6960,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F92" s="12">
         <v>0</v>
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="K92" s="7">
         <v>0</v>
@@ -6995,16 +6995,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C93" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D93" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="D93" s="10" t="s">
-        <v>324</v>
-      </c>
       <c r="E93" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F93" s="12">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="K93" s="7">
         <v>0</v>
@@ -7030,17 +7030,17 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E94" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>321</v>
-      </c>
       <c r="F94" s="12">
         <v>0</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="K94" s="7">
         <v>0</v>
@@ -7065,17 +7065,17 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D95" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="E95" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D95" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>328</v>
-      </c>
       <c r="F95" s="12">
         <v>0</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K95" s="7">
         <v>0</v>
@@ -7100,16 +7100,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F96" s="12">
         <v>0</v>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="K96" s="7">
         <v>0</v>
@@ -7135,16 +7135,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F97" s="12">
         <v>0</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="K97" s="7">
         <v>0</v>
@@ -7170,16 +7170,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C98" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D98" s="10" t="s">
-        <v>336</v>
-      </c>
       <c r="E98" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F98" s="12">
         <v>0</v>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="K98" s="7">
         <v>0</v>
@@ -7205,16 +7205,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F99" s="12">
         <v>1</v>
@@ -7229,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K99" s="7">
         <v>0</v>
@@ -7240,16 +7240,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F100" s="12">
         <v>1</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K100" s="7">
         <v>0</v>
@@ -7275,16 +7275,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F101" s="12">
         <v>1</v>
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K101" s="7">
         <v>0</v>
@@ -7310,16 +7310,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F102" s="12">
         <v>1</v>
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K102" s="7">
         <v>0</v>
@@ -7345,16 +7345,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F103" s="12">
         <v>0</v>
@@ -7369,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K103" s="7">
         <v>0</v>
@@ -7380,16 +7380,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F104" s="12">
         <v>0</v>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K104" s="7">
         <v>0</v>
@@ -7415,16 +7415,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C105" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="D105" s="10" t="s">
-        <v>352</v>
-      </c>
       <c r="E105" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F105" s="12">
         <v>1</v>
@@ -7439,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K105" s="7">
         <v>0</v>
@@ -7450,16 +7450,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F106" s="12">
         <v>1</v>
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="K106" s="7">
         <v>0</v>
@@ -7485,16 +7485,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F107" s="12">
         <v>1</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="K107" s="7">
         <v>0</v>
@@ -7520,17 +7520,17 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="E108" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>362</v>
-      </c>
       <c r="F108" s="12">
         <v>0</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="K108" s="7">
         <v>0</v>
@@ -7555,17 +7555,17 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D109" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E109" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="E109" s="10" t="s">
-        <v>370</v>
-      </c>
       <c r="F109" s="12">
         <v>1</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="K109" s="7">
         <v>0</v>
@@ -7590,17 +7590,17 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E110" t="s">
         <v>373</v>
       </c>
-      <c r="C110" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="E110" t="s">
-        <v>375</v>
-      </c>
       <c r="F110" s="12">
         <v>1</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="K110" s="7">
         <v>0</v>
@@ -7625,17 +7625,17 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D111" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E111" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="E111" s="10" t="s">
-        <v>371</v>
-      </c>
       <c r="F111" s="12">
         <v>0</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="K111" s="7">
         <v>0</v>
@@ -7660,16 +7660,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F112" s="12">
         <v>0</v>
@@ -7684,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K112" s="7">
         <v>0</v>
@@ -7695,16 +7695,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D113" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C113" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>380</v>
-      </c>
       <c r="E113" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F113" s="12">
         <v>0</v>
@@ -7719,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K113" s="7">
         <v>0</v>
@@ -7730,16 +7730,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F114" s="12">
         <v>0</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K114" s="7">
         <v>0</v>
@@ -7765,16 +7765,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F115" s="12">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K115" s="7">
         <v>0</v>
@@ -7800,16 +7800,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D116" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>392</v>
-      </c>
       <c r="E116" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F116" s="12">
         <v>0</v>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K116" s="7">
         <v>0</v>
@@ -7835,16 +7835,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D117" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>393</v>
-      </c>
       <c r="E117" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F117" s="12">
         <v>0</v>
@@ -7859,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K117" s="7">
         <v>0</v>
@@ -7870,16 +7870,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C118" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>396</v>
-      </c>
       <c r="E118" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F118" s="12">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K118" s="7">
         <v>0</v>
@@ -7905,16 +7905,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F119" s="12">
         <v>0</v>
@@ -7929,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K119" s="7">
         <v>0</v>
@@ -7940,16 +7940,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F120" s="12">
         <v>1</v>
@@ -7964,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="K120" s="7">
         <v>0</v>
@@ -7975,17 +7975,17 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="E121" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>403</v>
-      </c>
       <c r="F121" s="12">
         <v>0</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="K121" s="7">
         <v>0</v>
@@ -8010,16 +8010,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F122" s="12">
         <v>0</v>
@@ -8034,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="K122" s="7">
         <v>0</v>
@@ -8045,17 +8045,17 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="E123" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>407</v>
-      </c>
       <c r="F123" s="12">
         <v>0</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="K123" s="7">
         <v>0</v>
@@ -8080,16 +8080,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F124" s="12">
         <v>0</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="K124" s="7">
         <v>0</v>
@@ -8115,16 +8115,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F125" s="12">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K125" s="7">
         <v>0</v>
@@ -8150,16 +8150,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F126" s="12">
         <v>0</v>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K126" s="7">
         <v>0</v>
@@ -8185,16 +8185,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F127" s="12">
         <v>0</v>
@@ -8209,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K127" s="7">
         <v>0</v>
@@ -8220,16 +8220,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F128" s="12">
         <v>0</v>
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K128" s="7">
         <v>0</v>
@@ -8255,16 +8255,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F129" s="12">
         <v>0</v>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K129" s="7">
         <v>0</v>
@@ -8290,16 +8290,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C130" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="C130" s="10" t="s">
-        <v>427</v>
-      </c>
       <c r="D130" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F130" s="12">
         <v>0</v>
@@ -8314,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K130" s="7">
         <v>0</v>
@@ -8325,16 +8325,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F131" s="12">
         <v>0</v>
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K131" s="7">
         <v>0</v>
@@ -8360,17 +8360,17 @@
         <v>131</v>
       </c>
       <c r="B132" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E132" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="C132" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>441</v>
-      </c>
       <c r="F132" s="12">
         <v>0</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="K132" s="7">
         <v>0</v>
@@ -8395,16 +8395,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F133" s="12">
         <v>0</v>
@@ -8419,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="K133" s="7">
         <v>0</v>
@@ -8430,16 +8430,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C134" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D134" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="D134" s="10" t="s">
-        <v>456</v>
-      </c>
       <c r="E134" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F134" s="12">
         <v>0</v>
@@ -8454,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="K134" s="7">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C135" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D135" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="D135" s="10" t="s">
-        <v>457</v>
-      </c>
       <c r="E135" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F135" s="12">
         <v>0</v>
@@ -8489,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="K135" s="7">
         <v>0</v>
@@ -8500,17 +8500,17 @@
         <v>135</v>
       </c>
       <c r="B136" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="E136" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C136" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>446</v>
-      </c>
       <c r="F136" s="12">
         <v>0</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="K136" s="7">
         <v>0</v>
@@ -8535,16 +8535,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F137" s="12">
         <v>0</v>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="K137" s="7">
         <v>0</v>
@@ -8570,17 +8570,17 @@
         <v>137</v>
       </c>
       <c r="B138" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="E138" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="C138" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="E138" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="F138" s="12">
         <v>0</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="K138" s="7">
         <v>0</v>
@@ -8605,16 +8605,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>469</v>
-      </c>
       <c r="E139" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F139" s="12">
         <v>0</v>
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K139" s="7">
         <v>0</v>
@@ -8640,16 +8640,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F140" s="12">
         <v>0</v>
@@ -8664,7 +8664,7 @@
         <v>1</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="K140" s="7">
         <v>0</v>
@@ -8675,16 +8675,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C141" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="D141" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="D141" s="10" t="s">
-        <v>473</v>
-      </c>
       <c r="E141" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F141" s="12">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>1</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K141" s="7">
         <v>0</v>
@@ -8710,16 +8710,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F142" s="12">
         <v>0</v>
@@ -8734,7 +8734,7 @@
         <v>1</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K142" s="7">
         <v>0</v>
@@ -8745,16 +8745,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F143" s="12">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K143" s="7">
         <v>0</v>
@@ -8780,17 +8780,17 @@
         <v>143</v>
       </c>
       <c r="B144" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E144" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C144" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="E144" s="10" t="s">
-        <v>481</v>
-      </c>
       <c r="F144" s="12">
         <v>0</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K144" s="7">
         <v>0</v>
@@ -8815,17 +8815,17 @@
         <v>144</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C145" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E145" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="D145" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E145" s="10" t="s">
-        <v>484</v>
-      </c>
       <c r="F145" s="12">
         <v>0</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K145" s="7">
         <v>0</v>
@@ -8850,17 +8850,17 @@
         <v>145</v>
       </c>
       <c r="B146" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E146" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="C146" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="E146" s="10" t="s">
-        <v>487</v>
-      </c>
       <c r="F146" s="12">
         <v>0</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K146" s="7">
         <v>0</v>
@@ -8885,16 +8885,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C147" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D147" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="D147" s="10" t="s">
-        <v>491</v>
-      </c>
       <c r="E147" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F147" s="12">
         <v>1</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="K147" s="7">
         <v>0</v>
@@ -8920,16 +8920,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F148" s="12">
         <v>1</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="K148" s="7">
         <v>0</v>
@@ -8955,16 +8955,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C149" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D149" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="D149" s="10" t="s">
-        <v>496</v>
-      </c>
       <c r="E149" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F149" s="12">
         <v>1</v>
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="K149" s="7">
         <v>0</v>
@@ -8990,17 +8990,17 @@
         <v>149</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D150" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="E150" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="E150" s="10" t="s">
-        <v>499</v>
-      </c>
       <c r="F150" s="12">
         <v>1</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="K150" s="7">
         <v>0</v>
@@ -9025,16 +9025,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F151" s="12">
         <v>0</v>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K151" s="7">
         <v>0</v>
@@ -9060,16 +9060,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F152" s="12">
         <v>1</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K152" s="7">
         <v>0</v>
@@ -9095,16 +9095,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F153" s="12">
         <v>0</v>
@@ -9119,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K153" s="7">
         <v>0</v>
@@ -9130,16 +9130,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F154" s="12">
         <v>0</v>
@@ -9154,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K154" s="7">
         <v>0</v>
@@ -9165,16 +9165,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F155" s="12">
         <v>0</v>
@@ -9189,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K155" s="7">
         <v>0</v>
@@ -9200,16 +9200,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F156" s="12">
         <v>0</v>
@@ -9224,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K156" s="7">
         <v>0</v>
@@ -9235,16 +9235,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F157" s="12">
         <v>0</v>
@@ -9259,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K157" s="7">
         <v>0</v>
@@ -9270,16 +9270,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F158" s="12">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K158" s="7">
         <v>0</v>
@@ -9305,16 +9305,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F159" s="12">
         <v>0</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K159" s="7">
         <v>0</v>
@@ -9340,16 +9340,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F160" s="12">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K160" s="7">
         <v>0</v>
@@ -9375,16 +9375,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F161" s="12">
         <v>0</v>
@@ -9399,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K161" s="7">
         <v>0</v>
@@ -9410,16 +9410,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F162" s="12">
         <v>0</v>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K162" s="7">
         <v>0</v>
@@ -9445,16 +9445,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F163" s="12">
         <v>0</v>
@@ -9469,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K163" s="7">
         <v>0</v>
@@ -9480,17 +9480,17 @@
         <v>163</v>
       </c>
       <c r="B164" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="E164" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="C164" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="D164" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="E164" s="10" t="s">
-        <v>543</v>
-      </c>
       <c r="F164" s="12">
         <v>0</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="K164" s="7">
         <v>0</v>
@@ -9515,16 +9515,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F165" s="12">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="K165" s="7">
         <v>0</v>
@@ -9550,16 +9550,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F166" s="12">
         <v>0</v>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="K166" s="7">
         <v>0</v>
@@ -9585,16 +9585,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F167" s="12">
         <v>0</v>
@@ -9609,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="9" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="K167" s="7">
         <v>0</v>
@@ -9620,16 +9620,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F168" s="12">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="K168" s="7">
         <v>0</v>
@@ -9655,17 +9655,17 @@
         <v>168</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C169" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="E169" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="D169" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E169" s="10" t="s">
-        <v>560</v>
-      </c>
       <c r="F169" s="12">
         <v>0</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="K169" s="7">
         <v>0</v>
@@ -9690,17 +9690,17 @@
         <v>169</v>
       </c>
       <c r="B170" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="E170" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="C170" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="D170" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="E170" s="10" t="s">
-        <v>564</v>
-      </c>
       <c r="F170" s="12">
         <v>0</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="9" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="K170" s="7">
         <v>0</v>
@@ -9725,17 +9725,17 @@
         <v>170</v>
       </c>
       <c r="B171" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="E171" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="C171" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="E171" s="10" t="s">
-        <v>567</v>
-      </c>
       <c r="F171" s="12">
         <v>0</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="9" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="K171" s="7">
         <v>0</v>
@@ -9760,16 +9760,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F172" s="12">
         <v>0</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="K172" s="7">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F173" s="12">
         <v>0</v>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="9" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="K173" s="7">
         <v>0</v>
@@ -9830,16 +9830,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F174" s="12">
         <v>1</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="9" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="K174" s="7">
         <v>0</v>
@@ -9865,16 +9865,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="D175" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="C175" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>579</v>
-      </c>
       <c r="E175" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F175" s="12">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="9" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="K175" s="7">
         <v>0</v>
@@ -9900,17 +9900,17 @@
         <v>175</v>
       </c>
       <c r="B176" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="E176" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="C176" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="D176" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="E176" s="10" t="s">
-        <v>596</v>
-      </c>
       <c r="F176" s="12">
         <v>0</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="9" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K176" s="7">
         <v>0</v>
@@ -9935,31 +9935,31 @@
         <v>176</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C177" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="E177" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="D177" s="10" t="s">
+      <c r="F177" s="12">
+        <v>0</v>
+      </c>
+      <c r="G177" s="12">
+        <v>1</v>
+      </c>
+      <c r="H177" s="12">
+        <v>1</v>
+      </c>
+      <c r="I177" s="12">
+        <v>0</v>
+      </c>
+      <c r="J177" s="9" t="s">
         <v>603</v>
-      </c>
-      <c r="E177" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="F177" s="12">
-        <v>0</v>
-      </c>
-      <c r="G177" s="12">
-        <v>1</v>
-      </c>
-      <c r="H177" s="12">
-        <v>1</v>
-      </c>
-      <c r="I177" s="12">
-        <v>0</v>
-      </c>
-      <c r="J177" s="9" t="s">
-        <v>605</v>
       </c>
       <c r="K177" s="7">
         <v>0</v>
@@ -9970,17 +9970,17 @@
         <v>177</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C178" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="E178" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="D178" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="E178" s="10" t="s">
-        <v>602</v>
-      </c>
       <c r="F178" s="12">
         <v>0</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K178" s="7">
         <v>0</v>
@@ -10005,31 +10005,31 @@
         <v>178</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E179" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="F179" s="12">
+        <v>0</v>
+      </c>
+      <c r="G179" s="12">
+        <v>1</v>
+      </c>
+      <c r="H179" s="12">
+        <v>0</v>
+      </c>
+      <c r="I179" s="12">
+        <v>0</v>
+      </c>
+      <c r="J179" s="9" t="s">
         <v>609</v>
-      </c>
-      <c r="F179" s="12">
-        <v>0</v>
-      </c>
-      <c r="G179" s="12">
-        <v>1</v>
-      </c>
-      <c r="H179" s="12">
-        <v>0</v>
-      </c>
-      <c r="I179" s="12">
-        <v>0</v>
-      </c>
-      <c r="J179" s="9" t="s">
-        <v>611</v>
       </c>
       <c r="K179" s="7">
         <v>0</v>
@@ -10040,17 +10040,17 @@
         <v>179</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C180" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="E180" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="D180" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="E180" s="10" t="s">
-        <v>610</v>
-      </c>
       <c r="F180" s="12">
         <v>0</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K180" s="7">
         <v>0</v>
@@ -10075,16 +10075,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F181" s="12">
         <v>0</v>
@@ -10099,7 +10099,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K181" s="7">
         <v>0</v>
@@ -10110,16 +10110,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F182" s="12">
         <v>0</v>
@@ -10134,7 +10134,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K182" s="7">
         <v>0</v>
@@ -10145,16 +10145,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F183" s="12">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K183" s="7">
         <v>0</v>
@@ -10180,16 +10180,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F184" s="12">
         <v>0</v>
@@ -10204,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K184" s="7">
         <v>0</v>
@@ -10215,31 +10215,31 @@
         <v>184</v>
       </c>
       <c r="B185" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="F185" s="12">
+        <v>0</v>
+      </c>
+      <c r="G185" s="12">
+        <v>1</v>
+      </c>
+      <c r="H185" s="12">
+        <v>0</v>
+      </c>
+      <c r="I185" s="12">
+        <v>0</v>
+      </c>
+      <c r="J185" s="9" t="s">
         <v>617</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="D185" s="10" t="s">
-        <v>884</v>
-      </c>
-      <c r="E185" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="F185" s="12">
-        <v>0</v>
-      </c>
-      <c r="G185" s="12">
-        <v>1</v>
-      </c>
-      <c r="H185" s="12">
-        <v>0</v>
-      </c>
-      <c r="I185" s="12">
-        <v>0</v>
-      </c>
-      <c r="J185" s="9" t="s">
-        <v>619</v>
       </c>
       <c r="K185" s="7">
         <v>0</v>
@@ -10250,16 +10250,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F186" s="12">
         <v>0</v>
@@ -10274,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="J186" s="9" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K186" s="7">
         <v>0</v>
@@ -10285,16 +10285,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F187" s="12">
         <v>0</v>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="J187" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K187" s="7">
         <v>0</v>
@@ -10320,16 +10320,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F188" s="12">
         <v>0</v>
@@ -10344,7 +10344,7 @@
         <v>0</v>
       </c>
       <c r="J188" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K188" s="7">
         <v>0</v>
@@ -10355,16 +10355,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F189" s="12">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="J189" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K189" s="7">
         <v>0</v>
@@ -10390,31 +10390,31 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D190" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="E190" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="F190" s="12">
+        <v>0</v>
+      </c>
+      <c r="G190" s="12">
+        <v>0</v>
+      </c>
+      <c r="H190" s="12">
+        <v>1</v>
+      </c>
+      <c r="I190" s="12">
+        <v>0</v>
+      </c>
+      <c r="J190" s="9" t="s">
         <v>641</v>
-      </c>
-      <c r="E190" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="F190" s="12">
-        <v>0</v>
-      </c>
-      <c r="G190" s="12">
-        <v>0</v>
-      </c>
-      <c r="H190" s="12">
-        <v>1</v>
-      </c>
-      <c r="I190" s="12">
-        <v>0</v>
-      </c>
-      <c r="J190" s="9" t="s">
-        <v>643</v>
       </c>
       <c r="K190" s="7">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F191" s="12">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="J191" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K191" s="7">
         <v>0</v>
@@ -10460,17 +10460,17 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C192" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="E192" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="D192" s="10" t="s">
-        <v>645</v>
-      </c>
-      <c r="E192" s="10" t="s">
-        <v>646</v>
-      </c>
       <c r="F192" s="12">
         <v>0</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="J192" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K192" s="7">
         <v>0</v>
@@ -10495,31 +10495,31 @@
         <v>192</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C193" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D193" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="D193" s="10" t="s">
-        <v>649</v>
-      </c>
       <c r="E193" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="F193" s="12">
+        <v>0</v>
+      </c>
+      <c r="G193" s="12">
+        <v>1</v>
+      </c>
+      <c r="H193" s="12">
+        <v>1</v>
+      </c>
+      <c r="I193" s="12">
+        <v>0</v>
+      </c>
+      <c r="J193" s="9" t="s">
         <v>648</v>
-      </c>
-      <c r="F193" s="12">
-        <v>0</v>
-      </c>
-      <c r="G193" s="12">
-        <v>1</v>
-      </c>
-      <c r="H193" s="12">
-        <v>1</v>
-      </c>
-      <c r="I193" s="12">
-        <v>0</v>
-      </c>
-      <c r="J193" s="9" t="s">
-        <v>650</v>
       </c>
       <c r="K193" s="7">
         <v>0</v>
@@ -10530,17 +10530,17 @@
         <v>193</v>
       </c>
       <c r="B194" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="E194" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="C194" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="D194" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="E194" s="10" t="s">
-        <v>653</v>
-      </c>
       <c r="F194" s="12">
         <v>0</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="J194" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K194" s="7">
         <v>0</v>
@@ -10565,16 +10565,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C195" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="D195" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="D195" s="10" t="s">
-        <v>656</v>
-      </c>
       <c r="E195" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F195" s="12">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="J195" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K195" s="7">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F196" s="12">
         <v>0</v>
@@ -10624,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="J196" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K196" s="7">
         <v>0</v>
@@ -10635,16 +10635,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F197" s="12">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="J197" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K197" s="7">
         <v>0</v>
@@ -10670,16 +10670,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F198" s="12">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="J198" s="9" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K198" s="7">
         <v>0</v>
@@ -10705,16 +10705,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F199" s="12">
         <v>1</v>
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="J199" s="9" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K199" s="7">
         <v>0</v>
@@ -10740,31 +10740,31 @@
         <v>199</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E200" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="F200" s="12">
+        <v>0</v>
+      </c>
+      <c r="G200" s="12">
+        <v>0</v>
+      </c>
+      <c r="H200" s="12">
+        <v>1</v>
+      </c>
+      <c r="I200" s="12">
+        <v>0</v>
+      </c>
+      <c r="J200" s="9" t="s">
         <v>668</v>
-      </c>
-      <c r="F200" s="12">
-        <v>0</v>
-      </c>
-      <c r="G200" s="12">
-        <v>0</v>
-      </c>
-      <c r="H200" s="12">
-        <v>1</v>
-      </c>
-      <c r="I200" s="12">
-        <v>0</v>
-      </c>
-      <c r="J200" s="9" t="s">
-        <v>670</v>
       </c>
       <c r="K200" s="7">
         <v>0</v>
@@ -10775,17 +10775,17 @@
         <v>200</v>
       </c>
       <c r="B201" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="E201" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="C201" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="D201" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="E201" s="10" t="s">
-        <v>674</v>
-      </c>
       <c r="F201" s="12">
         <v>0</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="J201" s="9" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="K201" s="7">
         <v>0</v>
@@ -10810,31 +10810,31 @@
         <v>201</v>
       </c>
       <c r="B202" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="E202" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="C202" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D202" s="10" t="s">
+      <c r="F202" s="12">
+        <v>0</v>
+      </c>
+      <c r="G202" s="12">
+        <v>1</v>
+      </c>
+      <c r="H202" s="12">
+        <v>1</v>
+      </c>
+      <c r="I202" s="12">
+        <v>0</v>
+      </c>
+      <c r="J202" s="9" t="s">
         <v>679</v>
-      </c>
-      <c r="E202" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="F202" s="12">
-        <v>0</v>
-      </c>
-      <c r="G202" s="12">
-        <v>1</v>
-      </c>
-      <c r="H202" s="12">
-        <v>1</v>
-      </c>
-      <c r="I202" s="12">
-        <v>0</v>
-      </c>
-      <c r="J202" s="9" t="s">
-        <v>681</v>
       </c>
       <c r="K202" s="7">
         <v>0</v>
@@ -10845,16 +10845,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F203" s="12">
         <v>0</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J203" s="9" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="K203" s="7">
         <v>0</v>
@@ -10880,31 +10880,31 @@
         <v>203</v>
       </c>
       <c r="B204" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="E204" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="C204" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="D204" s="10" t="s">
+      <c r="F204" s="12">
+        <v>0</v>
+      </c>
+      <c r="G204" s="12">
+        <v>0</v>
+      </c>
+      <c r="H204" s="12">
+        <v>1</v>
+      </c>
+      <c r="I204" s="12">
+        <v>0</v>
+      </c>
+      <c r="J204" s="9" t="s">
         <v>686</v>
-      </c>
-      <c r="E204" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="F204" s="12">
-        <v>0</v>
-      </c>
-      <c r="G204" s="12">
-        <v>0</v>
-      </c>
-      <c r="H204" s="12">
-        <v>1</v>
-      </c>
-      <c r="I204" s="12">
-        <v>0</v>
-      </c>
-      <c r="J204" s="9" t="s">
-        <v>688</v>
       </c>
       <c r="K204" s="7">
         <v>0</v>
@@ -10915,16 +10915,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F205" s="12">
         <v>0</v>
@@ -10939,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="J205" s="9" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K205" s="7">
         <v>0</v>
@@ -10950,31 +10950,31 @@
         <v>205</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E206" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="F206" s="12">
+        <v>0</v>
+      </c>
+      <c r="G206" s="12">
+        <v>1</v>
+      </c>
+      <c r="H206" s="12">
+        <v>1</v>
+      </c>
+      <c r="I206" s="12">
+        <v>0</v>
+      </c>
+      <c r="J206" s="9" t="s">
         <v>689</v>
-      </c>
-      <c r="F206" s="12">
-        <v>0</v>
-      </c>
-      <c r="G206" s="12">
-        <v>1</v>
-      </c>
-      <c r="H206" s="12">
-        <v>1</v>
-      </c>
-      <c r="I206" s="12">
-        <v>0</v>
-      </c>
-      <c r="J206" s="9" t="s">
-        <v>691</v>
       </c>
       <c r="K206" s="7">
         <v>0</v>
@@ -10985,16 +10985,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F207" s="12">
         <v>0</v>
@@ -11009,7 +11009,7 @@
         <v>0</v>
       </c>
       <c r="J207" s="9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K207" s="7">
         <v>0</v>
@@ -11020,17 +11020,17 @@
         <v>207</v>
       </c>
       <c r="B208" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="E208" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="C208" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="D208" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="E208" s="10" t="s">
-        <v>696</v>
-      </c>
       <c r="F208" s="12">
         <v>0</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>1</v>
       </c>
       <c r="J208" s="9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K208" s="7">
         <v>0</v>
@@ -11055,17 +11055,17 @@
         <v>208</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C209" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="E209" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="D209" s="10" t="s">
-        <v>887</v>
-      </c>
-      <c r="E209" s="10" t="s">
-        <v>699</v>
-      </c>
       <c r="F209" s="12">
         <v>0</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>1</v>
       </c>
       <c r="J209" s="9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K209" s="7">
         <v>0</v>
@@ -11090,17 +11090,17 @@
         <v>209</v>
       </c>
       <c r="B210" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="E210" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="C210" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D210" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="E210" s="10" t="s">
-        <v>703</v>
-      </c>
       <c r="F210" s="12">
         <v>0</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="J210" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K210" s="7">
         <v>0</v>
@@ -11125,16 +11125,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F211" s="12">
         <v>0</v>
@@ -11149,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="J211" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K211" s="7">
         <v>0</v>
@@ -11160,16 +11160,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F212" s="12">
         <v>0</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="J212" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K212" s="7">
         <v>0</v>
@@ -11195,17 +11195,17 @@
         <v>212</v>
       </c>
       <c r="B213" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="E213" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C213" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D213" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="E213" s="10" t="s">
-        <v>711</v>
-      </c>
       <c r="F213" s="12">
         <v>0</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="J213" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K213" s="7">
         <v>0</v>
@@ -11230,17 +11230,17 @@
         <v>213</v>
       </c>
       <c r="B214" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="E214" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="C214" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="D214" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="E214" s="10" t="s">
-        <v>714</v>
-      </c>
       <c r="F214" s="12">
         <v>0</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="J214" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K214" s="7">
         <v>0</v>
@@ -11265,17 +11265,17 @@
         <v>214</v>
       </c>
       <c r="B215" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="D215" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="C215" s="10" t="s">
+      <c r="E215" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="D215" s="10" t="s">
-        <v>717</v>
-      </c>
-      <c r="E215" s="10" t="s">
-        <v>718</v>
-      </c>
       <c r="F215" s="12">
         <v>0</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="J215" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K215" s="7">
         <v>0</v>
@@ -11300,17 +11300,17 @@
         <v>215</v>
       </c>
       <c r="B216" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="E216" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="C216" s="10" t="s">
-        <v>725</v>
-      </c>
-      <c r="D216" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E216" s="10" t="s">
-        <v>726</v>
-      </c>
       <c r="F216" s="12">
         <v>0</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="J216" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K216" s="7">
         <v>0</v>
@@ -11335,31 +11335,31 @@
         <v>216</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D217" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="E217" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F217" s="12">
+        <v>1</v>
+      </c>
+      <c r="G217" s="12">
+        <v>0</v>
+      </c>
+      <c r="H217" s="12">
+        <v>1</v>
+      </c>
+      <c r="I217" s="12">
+        <v>0</v>
+      </c>
+      <c r="J217" s="9" t="s">
         <v>721</v>
-      </c>
-      <c r="E217" s="10" t="s">
-        <v>719</v>
-      </c>
-      <c r="F217" s="12">
-        <v>1</v>
-      </c>
-      <c r="G217" s="12">
-        <v>0</v>
-      </c>
-      <c r="H217" s="12">
-        <v>1</v>
-      </c>
-      <c r="I217" s="12">
-        <v>0</v>
-      </c>
-      <c r="J217" s="9" t="s">
-        <v>723</v>
       </c>
       <c r="K217" s="7">
         <v>0</v>
@@ -11370,16 +11370,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F218" s="12">
         <v>1</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="J218" s="9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K218" s="7">
         <v>0</v>
@@ -11405,31 +11405,31 @@
         <v>218</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D219" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="E219" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="F219" s="12">
+        <v>1</v>
+      </c>
+      <c r="G219" s="12">
+        <v>0</v>
+      </c>
+      <c r="H219" s="12">
+        <v>0</v>
+      </c>
+      <c r="I219" s="12">
+        <v>0</v>
+      </c>
+      <c r="J219" s="9" t="s">
         <v>734</v>
-      </c>
-      <c r="E219" s="10" t="s">
-        <v>732</v>
-      </c>
-      <c r="F219" s="12">
-        <v>1</v>
-      </c>
-      <c r="G219" s="12">
-        <v>0</v>
-      </c>
-      <c r="H219" s="12">
-        <v>0</v>
-      </c>
-      <c r="I219" s="12">
-        <v>0</v>
-      </c>
-      <c r="J219" s="9" t="s">
-        <v>736</v>
       </c>
       <c r="K219" s="7">
         <v>0</v>
@@ -11440,31 +11440,31 @@
         <v>219</v>
       </c>
       <c r="B220" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="E220" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="C220" s="10" t="s">
-        <v>738</v>
-      </c>
-      <c r="D220" s="10" t="s">
-        <v>740</v>
-      </c>
-      <c r="E220" s="10" t="s">
+      <c r="F220" s="12">
+        <v>0</v>
+      </c>
+      <c r="G220" s="12">
+        <v>0</v>
+      </c>
+      <c r="H220" s="12">
+        <v>1</v>
+      </c>
+      <c r="I220" s="12">
+        <v>0</v>
+      </c>
+      <c r="J220" s="9" t="s">
         <v>739</v>
-      </c>
-      <c r="F220" s="12">
-        <v>0</v>
-      </c>
-      <c r="G220" s="12">
-        <v>0</v>
-      </c>
-      <c r="H220" s="12">
-        <v>1</v>
-      </c>
-      <c r="I220" s="12">
-        <v>0</v>
-      </c>
-      <c r="J220" s="9" t="s">
-        <v>741</v>
       </c>
       <c r="K220" s="7">
         <v>0</v>
@@ -11475,17 +11475,17 @@
         <v>220</v>
       </c>
       <c r="B221" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="E221" s="10" t="s">
         <v>742</v>
       </c>
-      <c r="C221" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="D221" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="E221" s="10" t="s">
-        <v>744</v>
-      </c>
       <c r="F221" s="12">
         <v>0</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="J221" s="9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="K221" s="7">
         <v>0</v>
@@ -11510,17 +11510,17 @@
         <v>221</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C222" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="E222" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="D222" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="E222" s="10" t="s">
-        <v>748</v>
-      </c>
       <c r="F222" s="12">
         <v>0</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="J222" s="9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="K222" s="7">
         <v>0</v>
@@ -11545,16 +11545,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F223" s="12">
         <v>0</v>
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="J223" s="9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="K223" s="7">
         <v>0</v>
@@ -11580,31 +11580,31 @@
         <v>223</v>
       </c>
       <c r="B224" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="E224" s="10" t="s">
         <v>752</v>
       </c>
-      <c r="C224" s="10" t="s">
+      <c r="F224" s="12">
+        <v>0</v>
+      </c>
+      <c r="G224" s="12">
+        <v>0</v>
+      </c>
+      <c r="H224" s="12">
+        <v>1</v>
+      </c>
+      <c r="I224" s="12">
+        <v>0</v>
+      </c>
+      <c r="J224" s="9" t="s">
         <v>753</v>
-      </c>
-      <c r="D224" s="10" t="s">
-        <v>756</v>
-      </c>
-      <c r="E224" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="F224" s="12">
-        <v>0</v>
-      </c>
-      <c r="G224" s="12">
-        <v>0</v>
-      </c>
-      <c r="H224" s="12">
-        <v>1</v>
-      </c>
-      <c r="I224" s="12">
-        <v>0</v>
-      </c>
-      <c r="J224" s="9" t="s">
-        <v>755</v>
       </c>
       <c r="K224" s="7">
         <v>0</v>
@@ -11615,31 +11615,31 @@
         <v>224</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C225" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="D225" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="D225" s="10" t="s">
-        <v>759</v>
-      </c>
       <c r="E225" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="F225" s="12">
+        <v>0</v>
+      </c>
+      <c r="G225" s="12">
+        <v>1</v>
+      </c>
+      <c r="H225" s="12">
+        <v>0</v>
+      </c>
+      <c r="I225" s="12">
+        <v>0</v>
+      </c>
+      <c r="J225" s="9" t="s">
         <v>758</v>
-      </c>
-      <c r="F225" s="12">
-        <v>0</v>
-      </c>
-      <c r="G225" s="12">
-        <v>1</v>
-      </c>
-      <c r="H225" s="12">
-        <v>0</v>
-      </c>
-      <c r="I225" s="12">
-        <v>0</v>
-      </c>
-      <c r="J225" s="9" t="s">
-        <v>760</v>
       </c>
       <c r="K225" s="7">
         <v>0</v>
@@ -11650,16 +11650,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F226" s="12">
         <v>0</v>
@@ -11674,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="J226" s="9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K226" s="7">
         <v>0</v>
@@ -11685,16 +11685,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C227" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F227" s="12">
         <v>0</v>
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="J227" s="9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K227" s="7">
         <v>0</v>
@@ -11720,16 +11720,16 @@
         <v>227</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C228" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="D228" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="D228" s="10" t="s">
-        <v>768</v>
-      </c>
       <c r="E228" s="10" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F228" s="12">
         <v>0</v>
@@ -11744,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="J228" s="9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K228" s="7">
         <v>0</v>
@@ -11755,16 +11755,16 @@
         <v>228</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F229" s="12">
         <v>0</v>
@@ -11779,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="J229" s="9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K229" s="7">
         <v>0</v>
@@ -11790,16 +11790,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F230" s="12">
         <v>0</v>
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="J230" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K230" s="7">
         <v>0</v>
@@ -11825,16 +11825,16 @@
         <v>230</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F231" s="12">
         <v>0</v>
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
       <c r="J231" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K231" s="7">
         <v>0</v>
@@ -11860,16 +11860,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F232" s="12">
         <v>0</v>
@@ -11884,7 +11884,7 @@
         <v>0</v>
       </c>
       <c r="J232" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K232" s="7">
         <v>0</v>
@@ -11895,31 +11895,31 @@
         <v>232</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E233" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="F233" s="12">
+        <v>0</v>
+      </c>
+      <c r="G233" s="12">
+        <v>0</v>
+      </c>
+      <c r="H233" s="12">
+        <v>1</v>
+      </c>
+      <c r="I233" s="12">
+        <v>0</v>
+      </c>
+      <c r="J233" s="9" t="s">
         <v>812</v>
-      </c>
-      <c r="F233" s="12">
-        <v>0</v>
-      </c>
-      <c r="G233" s="12">
-        <v>0</v>
-      </c>
-      <c r="H233" s="12">
-        <v>1</v>
-      </c>
-      <c r="I233" s="12">
-        <v>0</v>
-      </c>
-      <c r="J233" s="9" t="s">
-        <v>814</v>
       </c>
       <c r="K233" s="7">
         <v>0</v>
@@ -11930,16 +11930,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F234" s="12">
         <v>0</v>
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="J234" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K234" s="7">
         <v>0</v>
@@ -11965,16 +11965,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C235" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="D235" s="10" t="s">
         <v>817</v>
       </c>
-      <c r="D235" s="10" t="s">
-        <v>819</v>
-      </c>
       <c r="E235" s="10" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F235" s="12">
         <v>0</v>
@@ -11989,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="J235" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K235" s="7">
         <v>0</v>
@@ -12000,16 +12000,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F236" s="12">
         <v>0</v>
@@ -12024,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="J236" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K236" s="7">
         <v>0</v>
@@ -12035,17 +12035,17 @@
         <v>236</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D237" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="E237" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="E237" s="10" t="s">
-        <v>820</v>
-      </c>
       <c r="F237" s="12">
         <v>0</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="J237" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K237" s="7">
         <v>0</v>
@@ -12070,16 +12070,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F238" s="12">
         <v>0</v>
@@ -12094,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="J238" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K238" s="7">
         <v>0</v>
@@ -12105,16 +12105,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F239" s="12">
         <v>0</v>
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="J239" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="K239" s="7">
         <v>0</v>
@@ -12140,16 +12140,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F240" s="12">
         <v>0</v>
@@ -12164,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="J240" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="K240" s="7">
         <v>0</v>
@@ -12175,16 +12175,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E241" s="10" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F241" s="12">
         <v>0</v>
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="J241" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="K241" s="7">
         <v>0</v>
@@ -12210,16 +12210,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F242" s="12">
         <v>0</v>
@@ -12234,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="J242" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="K242" s="7">
         <v>0</v>
@@ -12245,16 +12245,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F243" s="12">
         <v>0</v>
@@ -12269,7 +12269,7 @@
         <v>0</v>
       </c>
       <c r="J243" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="K243" s="7">
         <v>0</v>
@@ -12280,16 +12280,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F244" s="12">
         <v>0</v>
@@ -12304,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="J244" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="K244" s="7">
         <v>0</v>
@@ -12315,31 +12315,31 @@
         <v>244</v>
       </c>
       <c r="B245" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="C245" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="C245" s="10" t="s">
-        <v>836</v>
-      </c>
       <c r="D245" s="10" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E245" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="F245" s="12">
+        <v>0</v>
+      </c>
+      <c r="G245" s="12">
+        <v>0</v>
+      </c>
+      <c r="H245" s="12">
+        <v>1</v>
+      </c>
+      <c r="I245" s="12">
+        <v>0</v>
+      </c>
+      <c r="J245" s="9" t="s">
         <v>835</v>
-      </c>
-      <c r="F245" s="12">
-        <v>0</v>
-      </c>
-      <c r="G245" s="12">
-        <v>0</v>
-      </c>
-      <c r="H245" s="12">
-        <v>1</v>
-      </c>
-      <c r="I245" s="12">
-        <v>0</v>
-      </c>
-      <c r="J245" s="9" t="s">
-        <v>837</v>
       </c>
       <c r="K245" s="7">
         <v>0</v>
@@ -12350,31 +12350,31 @@
         <v>245</v>
       </c>
       <c r="B246" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="D246" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="C246" s="10" t="s">
+      <c r="E246" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="D246" s="10" t="s">
+      <c r="F246" s="12">
+        <v>0</v>
+      </c>
+      <c r="G246" s="12">
+        <v>0</v>
+      </c>
+      <c r="H246" s="12">
+        <v>1</v>
+      </c>
+      <c r="I246" s="12">
+        <v>0</v>
+      </c>
+      <c r="J246" s="9" t="s">
         <v>847</v>
-      </c>
-      <c r="E246" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="F246" s="12">
-        <v>0</v>
-      </c>
-      <c r="G246" s="12">
-        <v>0</v>
-      </c>
-      <c r="H246" s="12">
-        <v>1</v>
-      </c>
-      <c r="I246" s="12">
-        <v>0</v>
-      </c>
-      <c r="J246" s="9" t="s">
-        <v>849</v>
       </c>
       <c r="K246" s="7">
         <v>0</v>
@@ -12385,16 +12385,16 @@
         <v>246</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F247" s="12">
         <v>0</v>
@@ -12409,7 +12409,7 @@
         <v>0</v>
       </c>
       <c r="J247" s="9" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="K247" s="7">
         <v>0</v>
@@ -12420,17 +12420,17 @@
         <v>247</v>
       </c>
       <c r="B248" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="D248" s="10" t="s">
         <v>853</v>
       </c>
-      <c r="C248" s="10" t="s">
+      <c r="E248" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="D248" s="10" t="s">
-        <v>855</v>
-      </c>
-      <c r="E248" s="10" t="s">
-        <v>854</v>
-      </c>
       <c r="F248" s="12">
         <v>0</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="J248" s="9" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="K248" s="7">
         <v>0</v>
@@ -12455,16 +12455,16 @@
         <v>248</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F249" s="12">
         <v>0</v>
@@ -12479,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="J249" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="K249" s="7">
         <v>0</v>
@@ -12490,16 +12490,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F250" s="12">
         <v>0</v>
@@ -12514,7 +12514,7 @@
         <v>0</v>
       </c>
       <c r="J250" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="K250" s="7">
         <v>0</v>
@@ -12525,16 +12525,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D251" s="10" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E251" s="10" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F251" s="12">
         <v>0</v>
@@ -12549,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="J251" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="K251" s="7">
         <v>0</v>
@@ -12560,16 +12560,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F252" s="12">
         <v>0</v>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="J252" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="K252" s="7">
         <v>0</v>
@@ -12595,16 +12595,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D253" s="10" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E253" s="10" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F253" s="12">
         <v>1</v>
@@ -12619,7 +12619,7 @@
         <v>0</v>
       </c>
       <c r="J253" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="K253" s="7">
         <v>0</v>
@@ -12630,16 +12630,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D254" s="10" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F254" s="12">
         <v>0</v>
@@ -12654,7 +12654,7 @@
         <v>1</v>
       </c>
       <c r="J254" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="K254" s="7">
         <v>0</v>
@@ -12665,16 +12665,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F255" s="12">
         <v>0</v>
@@ -12689,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="J255" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="K255" s="7">
         <v>0</v>
@@ -12700,17 +12700,17 @@
         <v>255</v>
       </c>
       <c r="B256" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="D256" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="E256" s="10" t="s">
         <v>930</v>
       </c>
-      <c r="C256" s="10" t="s">
-        <v>929</v>
-      </c>
-      <c r="D256" s="10" t="s">
-        <v>940</v>
-      </c>
-      <c r="E256" s="10" t="s">
-        <v>932</v>
-      </c>
       <c r="F256" s="12">
         <v>1</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>0</v>
       </c>
       <c r="J256" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="K256" s="7">
         <v>0</v>
@@ -12735,16 +12735,16 @@
         <v>256</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F257" s="12">
         <v>1</v>
@@ -12759,7 +12759,7 @@
         <v>0</v>
       </c>
       <c r="J257" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="K257" s="7">
         <v>0</v>
@@ -12770,16 +12770,16 @@
         <v>257</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F258" s="12">
         <v>0</v>
@@ -12794,7 +12794,7 @@
         <v>0</v>
       </c>
       <c r="J258" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="K258" s="7">
         <v>0</v>
@@ -12805,31 +12805,31 @@
         <v>258</v>
       </c>
       <c r="B259" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D259" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="E259" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="F259" s="12">
+        <v>1</v>
+      </c>
+      <c r="G259" s="12">
+        <v>0</v>
+      </c>
+      <c r="H259" s="12">
+        <v>0</v>
+      </c>
+      <c r="I259" s="12">
+        <v>0</v>
+      </c>
+      <c r="J259" s="9" t="s">
         <v>937</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="D259" s="10" t="s">
-        <v>943</v>
-      </c>
-      <c r="E259" s="10" t="s">
-        <v>938</v>
-      </c>
-      <c r="F259" s="12">
-        <v>1</v>
-      </c>
-      <c r="G259" s="12">
-        <v>0</v>
-      </c>
-      <c r="H259" s="12">
-        <v>0</v>
-      </c>
-      <c r="I259" s="12">
-        <v>0</v>
-      </c>
-      <c r="J259" s="9" t="s">
-        <v>939</v>
       </c>
       <c r="K259" s="7">
         <v>0</v>
@@ -12840,17 +12840,17 @@
         <v>259</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D260" s="10" t="s">
+        <v>942</v>
+      </c>
+      <c r="E260" s="10" t="s">
         <v>944</v>
       </c>
-      <c r="E260" s="10" t="s">
-        <v>946</v>
-      </c>
       <c r="F260" s="12">
         <v>0</v>
       </c>
@@ -12864,7 +12864,7 @@
         <v>0</v>
       </c>
       <c r="J260" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="K260" s="7">
         <v>0</v>
@@ -12875,16 +12875,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F261" s="12">
         <v>0</v>
@@ -12899,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="J261" s="9" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="K261" s="7">
         <v>0</v>
@@ -12910,17 +12910,17 @@
         <v>261</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C262" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="D262" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="E262" s="10" t="s">
         <v>951</v>
       </c>
-      <c r="D262" s="10" t="s">
-        <v>962</v>
-      </c>
-      <c r="E262" s="10" t="s">
-        <v>953</v>
-      </c>
       <c r="F262" s="12">
         <v>0</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>0</v>
       </c>
       <c r="J262" s="9" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="K262" s="7">
         <v>0</v>
@@ -12945,16 +12945,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F263" s="12">
         <v>0</v>
@@ -12969,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="J263" s="9" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="K263" s="7">
         <v>0</v>
@@ -12980,16 +12980,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F264" s="12">
         <v>0</v>
@@ -13004,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="J264" s="9" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="K264" s="7">
         <v>0</v>
@@ -13015,16 +13015,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F265" s="12">
         <v>0</v>
@@ -13039,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="J265" s="9" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="K265" s="7">
         <v>0</v>
@@ -13050,31 +13050,31 @@
         <v>265</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E266" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="F266" s="12">
+        <v>0</v>
+      </c>
+      <c r="G266" s="12">
+        <v>1</v>
+      </c>
+      <c r="H266" s="12">
+        <v>0</v>
+      </c>
+      <c r="I266" s="12">
+        <v>0</v>
+      </c>
+      <c r="J266" s="9" t="s">
         <v>966</v>
-      </c>
-      <c r="F266" s="12">
-        <v>0</v>
-      </c>
-      <c r="G266" s="12">
-        <v>1</v>
-      </c>
-      <c r="H266" s="12">
-        <v>0</v>
-      </c>
-      <c r="I266" s="12">
-        <v>0</v>
-      </c>
-      <c r="J266" s="9" t="s">
-        <v>968</v>
       </c>
       <c r="K266" s="7">
         <v>0</v>
@@ -13085,16 +13085,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F267" s="12">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="J267" s="9" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="K267" s="7">
         <v>1</v>
@@ -13120,16 +13120,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F268" s="12">
         <v>0</v>
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
       <c r="J268" s="9" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="K268" s="7">
         <v>0</v>
@@ -13155,16 +13155,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F269" s="12">
         <v>0</v>
@@ -13179,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="J269" s="9" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="K269" s="7">
         <v>0</v>
@@ -13190,16 +13190,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F270" s="12">
         <v>0</v>
@@ -13214,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="J270" s="9" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="K270" s="7">
         <v>0</v>
@@ -13225,31 +13225,31 @@
         <v>270</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D271" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="E271" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="F271" s="12">
+        <v>1</v>
+      </c>
+      <c r="G271" s="12">
+        <v>0</v>
+      </c>
+      <c r="H271" s="12">
+        <v>0</v>
+      </c>
+      <c r="I271" s="12">
+        <v>0</v>
+      </c>
+      <c r="J271" s="9" t="s">
         <v>988</v>
-      </c>
-      <c r="E271" s="10" t="s">
-        <v>982</v>
-      </c>
-      <c r="F271" s="12">
-        <v>1</v>
-      </c>
-      <c r="G271" s="12">
-        <v>0</v>
-      </c>
-      <c r="H271" s="12">
-        <v>0</v>
-      </c>
-      <c r="I271" s="12">
-        <v>0</v>
-      </c>
-      <c r="J271" s="9" t="s">
-        <v>990</v>
       </c>
       <c r="K271" s="7">
         <v>0</v>
@@ -13260,16 +13260,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E272" s="10" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F272" s="12">
         <v>1</v>
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="J272" s="9" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="K272" s="7">
         <v>1</v>
@@ -13295,16 +13295,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E273" s="10" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F273" s="12">
         <v>0</v>
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="J273" s="9" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="K273" s="7">
         <v>1</v>
@@ -13330,16 +13330,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E274" s="10" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F274" s="12">
         <v>0</v>
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="J274" s="9" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="K274" s="7">
         <v>1</v>
@@ -13365,16 +13365,16 @@
         <v>274</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D275" s="10" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E275" s="10" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F275" s="12">
         <v>0</v>
@@ -13389,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="J275" s="9" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="K275" s="7">
         <v>1</v>
@@ -13400,31 +13400,31 @@
         <v>275</v>
       </c>
       <c r="B276" s="10" t="s">
+        <v>995</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="D276" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E276" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="F276" s="12">
+        <v>0</v>
+      </c>
+      <c r="G276" s="12">
+        <v>1</v>
+      </c>
+      <c r="H276" s="12">
+        <v>1</v>
+      </c>
+      <c r="I276" s="12">
+        <v>0</v>
+      </c>
+      <c r="J276" s="9" t="s">
         <v>997</v>
-      </c>
-      <c r="C276" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D276" s="10" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E276" s="10" t="s">
-        <v>998</v>
-      </c>
-      <c r="F276" s="12">
-        <v>0</v>
-      </c>
-      <c r="G276" s="12">
-        <v>1</v>
-      </c>
-      <c r="H276" s="12">
-        <v>1</v>
-      </c>
-      <c r="I276" s="12">
-        <v>0</v>
-      </c>
-      <c r="J276" s="9" t="s">
-        <v>999</v>
       </c>
       <c r="K276" s="7">
         <v>0</v>
@@ -13435,16 +13435,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D277" s="10" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E277" s="10" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F277" s="12">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="J277" s="9" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="K277" s="7">
         <v>0</v>
@@ -13470,16 +13470,16 @@
         <v>277</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D278" s="10" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E278" s="10" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F278" s="12">
         <v>1</v>
@@ -13494,7 +13494,7 @@
         <v>0</v>
       </c>
       <c r="J278" s="9" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="K278" s="7">
         <v>1</v>
@@ -13505,16 +13505,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C279" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F279" s="12">
         <v>0</v>
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="J279" s="9" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="K279" s="7">
         <v>1</v>
@@ -13540,31 +13540,31 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D280" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E280" s="10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F280" s="12">
+        <v>0</v>
+      </c>
+      <c r="G280" s="12">
+        <v>1</v>
+      </c>
+      <c r="H280" s="12">
+        <v>0</v>
+      </c>
+      <c r="I280" s="12">
+        <v>0</v>
+      </c>
+      <c r="J280" s="9" t="s">
         <v>1017</v>
-      </c>
-      <c r="E280" s="10" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F280" s="12">
-        <v>0</v>
-      </c>
-      <c r="G280" s="12">
-        <v>1</v>
-      </c>
-      <c r="H280" s="12">
-        <v>0</v>
-      </c>
-      <c r="I280" s="12">
-        <v>0</v>
-      </c>
-      <c r="J280" s="9" t="s">
-        <v>1019</v>
       </c>
       <c r="K280" s="7">
         <v>1</v>
@@ -13575,16 +13575,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D281" s="10" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E281" s="10" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F281" s="12">
         <v>0</v>
@@ -13599,7 +13599,7 @@
         <v>0</v>
       </c>
       <c r="J281" s="9" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="K281" s="7">
         <v>1</v>
@@ -13610,16 +13610,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C282" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D282" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="D282" s="10" t="s">
-        <v>1023</v>
-      </c>
       <c r="E282" s="10" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F282" s="12">
         <v>0</v>
@@ -13634,7 +13634,7 @@
         <v>0</v>
       </c>
       <c r="J282" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="K282" s="7">
         <v>1</v>
@@ -13645,17 +13645,17 @@
         <v>282</v>
       </c>
       <c r="B283" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D283" s="10" t="s">
         <v>1026</v>
       </c>
-      <c r="C283" s="10" t="s">
+      <c r="E283" s="10" t="s">
         <v>1025</v>
       </c>
-      <c r="D283" s="10" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E283" s="10" t="s">
-        <v>1027</v>
-      </c>
       <c r="F283" s="12">
         <v>0</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>0</v>
       </c>
       <c r="J283" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="K283" s="7">
         <v>1</v>
@@ -13680,16 +13680,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D284" s="10" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E284" s="10" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F284" s="12">
         <v>0</v>
@@ -13704,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="J284" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="K284" s="7">
         <v>1</v>
@@ -13715,16 +13715,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D285" s="10" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E285" s="10" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F285" s="12">
         <v>0</v>
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="J285" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="K285" s="7">
         <v>1</v>
@@ -13750,31 +13750,31 @@
         <v>285</v>
       </c>
       <c r="B286" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C286" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D286" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E286" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F286" s="12">
+        <v>0</v>
+      </c>
+      <c r="G286" s="12">
+        <v>1</v>
+      </c>
+      <c r="H286" s="12">
+        <v>0</v>
+      </c>
+      <c r="I286" s="12">
+        <v>0</v>
+      </c>
+      <c r="J286" s="9" t="s">
         <v>1036</v>
-      </c>
-      <c r="C286" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D286" s="10" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E286" s="10" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F286" s="12">
-        <v>0</v>
-      </c>
-      <c r="G286" s="12">
-        <v>1</v>
-      </c>
-      <c r="H286" s="12">
-        <v>0</v>
-      </c>
-      <c r="I286" s="12">
-        <v>0</v>
-      </c>
-      <c r="J286" s="9" t="s">
-        <v>1038</v>
       </c>
       <c r="K286" s="7">
         <v>1</v>
@@ -13785,16 +13785,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D287" s="10" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E287" s="10" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F287" s="12">
         <v>0</v>
@@ -13809,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="J287" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="K287" s="7">
         <v>1</v>
@@ -13820,10 +13820,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D288" s="10"/>
       <c r="E288" s="10"/>

--- a/data/漢字.xlsx
+++ b/data/漢字.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Repositorios\kanjis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF581ABC-D952-4A9F-A3C3-69DDFB41C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ACA9B3-3B89-45BC-8835-6812562F6B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="漢字" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1093">
   <si>
     <t>次</t>
   </si>
@@ -2971,9 +2971,6 @@
     <t>2024年04月24日</t>
   </si>
   <si>
-    <t>おさ</t>
-  </si>
-  <si>
     <t>だけ</t>
   </si>
   <si>
@@ -3016,9 +3013,6 @@
     <t>低</t>
   </si>
   <si>
-    <t>Cultivar, Reparar</t>
-  </si>
-  <si>
     <t>Robusto, Fuerte</t>
   </si>
   <si>
@@ -3199,13 +3193,160 @@
     <t>お　（り）２</t>
   </si>
   <si>
-    <t>もち　（い）２</t>
-  </si>
-  <si>
     <t>くんよみ</t>
   </si>
   <si>
     <t>おんよみ</t>
+  </si>
+  <si>
+    <t>Gobernar, Administrar</t>
+  </si>
+  <si>
+    <t>束</t>
+  </si>
+  <si>
+    <t>堂</t>
+  </si>
+  <si>
+    <t>Camara pública, Salón</t>
+  </si>
+  <si>
+    <t>たみ</t>
+  </si>
+  <si>
+    <t>民</t>
+  </si>
+  <si>
+    <t>Gente</t>
+  </si>
+  <si>
+    <t>主</t>
+  </si>
+  <si>
+    <t>シュ、ス、</t>
+  </si>
+  <si>
+    <t>ぬし、おも</t>
+  </si>
+  <si>
+    <t>Lider</t>
+  </si>
+  <si>
+    <t>Globo ocular</t>
+  </si>
+  <si>
+    <t>ガン、ゲン</t>
+  </si>
+  <si>
+    <t>まなこ</t>
+  </si>
+  <si>
+    <t>眼</t>
+  </si>
+  <si>
+    <t>キョウ、ケイ</t>
+  </si>
+  <si>
+    <t>かがみ</t>
+  </si>
+  <si>
+    <t>Espejo</t>
+  </si>
+  <si>
+    <t>鏡</t>
+  </si>
+  <si>
+    <t>2024年06月25日</t>
+  </si>
+  <si>
+    <t>おさ　（め）</t>
+  </si>
+  <si>
+    <t>Cultivar, Masterizar, Disciplina</t>
+  </si>
+  <si>
+    <t>ひ　（き）</t>
+  </si>
+  <si>
+    <t>引</t>
+  </si>
+  <si>
+    <t>Tirar, Jalar</t>
+  </si>
+  <si>
+    <t>オウ</t>
+  </si>
+  <si>
+    <t>お　（し）</t>
+  </si>
+  <si>
+    <t>押</t>
+  </si>
+  <si>
+    <t>か　（わ）、か　（え）</t>
+  </si>
+  <si>
+    <t>ヘン（な）</t>
+  </si>
+  <si>
+    <t>変</t>
+  </si>
+  <si>
+    <t>角</t>
+  </si>
+  <si>
+    <t>つ　（ぎ）</t>
+  </si>
+  <si>
+    <t>もら　（い）２</t>
+  </si>
+  <si>
+    <t>ただ　（し）、ただし（い）</t>
+  </si>
+  <si>
+    <t>セイ、ショウ</t>
+  </si>
+  <si>
+    <t>正</t>
+  </si>
+  <si>
+    <t>ト</t>
+  </si>
+  <si>
+    <t>わた　（り）</t>
+  </si>
+  <si>
+    <t>渡</t>
+  </si>
+  <si>
+    <t>かた、かたち</t>
+  </si>
+  <si>
+    <t>形</t>
+  </si>
+  <si>
+    <t>Empujar, Presionar botón</t>
+  </si>
+  <si>
+    <t>Esquina, Ángulo</t>
+  </si>
+  <si>
+    <t>Siguiente, Seguir</t>
+  </si>
+  <si>
+    <t>Correcto, Corregir</t>
+  </si>
+  <si>
+    <t>Cruzar</t>
+  </si>
+  <si>
+    <t>Forma</t>
+  </si>
+  <si>
+    <t>Inusual, Sustituir</t>
+  </si>
+  <si>
+    <t>2024年07月14日</t>
   </si>
 </sst>
 </file>
@@ -3756,8 +3897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -3775,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>205</v>
@@ -8710,7 +8851,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>64</v>
@@ -9655,7 +9796,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C169" s="10" t="s">
         <v>556</v>
@@ -11125,7 +11266,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C211" s="10" t="s">
         <v>162</v>
@@ -11545,7 +11686,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C223" s="10" t="s">
         <v>158</v>
@@ -12006,7 +12147,7 @@
         <v>536</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E236" s="10" t="s">
         <v>814</v>
@@ -12910,7 +13051,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C262" s="10" t="s">
         <v>949</v>
@@ -13050,7 +13191,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C266" s="10" t="s">
         <v>12</v>
@@ -13085,16 +13226,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="C267" s="10" t="s">
         <v>508</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>982</v>
+        <v>1064</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F267" s="12">
         <v>0</v>
@@ -13103,16 +13244,16 @@
         <v>1</v>
       </c>
       <c r="H267" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267" s="12">
         <v>0</v>
       </c>
       <c r="J267" s="9" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="K267" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -13120,16 +13261,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C268" s="10" t="s">
         <v>387</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F268" s="12">
         <v>0</v>
@@ -13144,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="J268" s="9" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="K268" s="7">
         <v>0</v>
@@ -13155,16 +13296,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C269" s="10" t="s">
         <v>310</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F269" s="12">
         <v>0</v>
@@ -13179,7 +13320,7 @@
         <v>0</v>
       </c>
       <c r="J269" s="9" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="K269" s="7">
         <v>0</v>
@@ -13190,16 +13331,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C270" s="10" t="s">
         <v>556</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F270" s="12">
         <v>0</v>
@@ -13214,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="J270" s="9" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="K270" s="7">
         <v>0</v>
@@ -13225,31 +13366,31 @@
         <v>270</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C271" s="10" t="s">
         <v>295</v>
       </c>
       <c r="D271" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="E271" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="F271" s="12">
+        <v>1</v>
+      </c>
+      <c r="G271" s="12">
+        <v>0</v>
+      </c>
+      <c r="H271" s="12">
+        <v>0</v>
+      </c>
+      <c r="I271" s="12">
+        <v>0</v>
+      </c>
+      <c r="J271" s="9" t="s">
         <v>986</v>
-      </c>
-      <c r="E271" s="10" t="s">
-        <v>980</v>
-      </c>
-      <c r="F271" s="12">
-        <v>1</v>
-      </c>
-      <c r="G271" s="12">
-        <v>0</v>
-      </c>
-      <c r="H271" s="12">
-        <v>0</v>
-      </c>
-      <c r="I271" s="12">
-        <v>0</v>
-      </c>
-      <c r="J271" s="9" t="s">
-        <v>988</v>
       </c>
       <c r="K271" s="7">
         <v>0</v>
@@ -13260,16 +13401,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E272" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F272" s="12">
         <v>1</v>
@@ -13284,10 +13425,10 @@
         <v>0</v>
       </c>
       <c r="J272" s="9" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K272" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -13295,16 +13436,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C273" s="10" t="s">
         <v>293</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E273" s="10" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F273" s="12">
         <v>0</v>
@@ -13319,10 +13460,10 @@
         <v>0</v>
       </c>
       <c r="J273" s="9" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K273" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -13330,16 +13471,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C274" s="10" t="s">
         <v>348</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E274" s="10" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F274" s="12">
         <v>0</v>
@@ -13354,10 +13495,10 @@
         <v>0</v>
       </c>
       <c r="J274" s="9" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K274" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -13365,16 +13506,16 @@
         <v>274</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C275" s="10" t="s">
         <v>310</v>
       </c>
       <c r="D275" s="10" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E275" s="10" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F275" s="12">
         <v>0</v>
@@ -13389,10 +13530,10 @@
         <v>0</v>
       </c>
       <c r="J275" s="9" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K275" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -13400,16 +13541,16 @@
         <v>275</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C276" s="10" t="s">
         <v>551</v>
       </c>
       <c r="D276" s="10" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F276" s="12">
         <v>0</v>
@@ -13424,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="J276" s="9" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K276" s="7">
         <v>0</v>
@@ -13438,13 +13579,13 @@
         <v>69</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D277" s="10" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E277" s="10" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F277" s="12">
         <v>0</v>
@@ -13459,7 +13600,7 @@
         <v>0</v>
       </c>
       <c r="J277" s="9" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="K277" s="7">
         <v>0</v>
@@ -13470,16 +13611,16 @@
         <v>277</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C278" s="10" t="s">
         <v>663</v>
       </c>
       <c r="D278" s="10" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E278" s="10" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F278" s="12">
         <v>1</v>
@@ -13494,10 +13635,10 @@
         <v>0</v>
       </c>
       <c r="J278" s="9" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="K278" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -13511,10 +13652,10 @@
         <v>681</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F279" s="12">
         <v>0</v>
@@ -13529,10 +13670,10 @@
         <v>0</v>
       </c>
       <c r="J279" s="9" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="K279" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -13543,31 +13684,31 @@
         <v>69</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D280" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E280" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F280" s="12">
+        <v>0</v>
+      </c>
+      <c r="G280" s="12">
+        <v>1</v>
+      </c>
+      <c r="H280" s="12">
+        <v>0</v>
+      </c>
+      <c r="I280" s="12">
+        <v>0</v>
+      </c>
+      <c r="J280" s="9" t="s">
         <v>1015</v>
       </c>
-      <c r="E280" s="10" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F280" s="12">
-        <v>0</v>
-      </c>
-      <c r="G280" s="12">
-        <v>1</v>
-      </c>
-      <c r="H280" s="12">
-        <v>0</v>
-      </c>
-      <c r="I280" s="12">
-        <v>0</v>
-      </c>
-      <c r="J280" s="9" t="s">
-        <v>1017</v>
-      </c>
       <c r="K280" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -13575,16 +13716,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D281" s="10" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E281" s="10" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F281" s="12">
         <v>0</v>
@@ -13599,10 +13740,10 @@
         <v>0</v>
       </c>
       <c r="J281" s="9" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="K281" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -13610,16 +13751,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C282" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D282" s="10" t="s">
         <v>1019</v>
       </c>
-      <c r="D282" s="10" t="s">
-        <v>1021</v>
-      </c>
       <c r="E282" s="10" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F282" s="12">
         <v>0</v>
@@ -13634,10 +13775,10 @@
         <v>0</v>
       </c>
       <c r="J282" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="K282" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -13645,17 +13786,17 @@
         <v>282</v>
       </c>
       <c r="B283" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D283" s="10" t="s">
         <v>1024</v>
       </c>
-      <c r="C283" s="10" t="s">
+      <c r="E283" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="D283" s="10" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E283" s="10" t="s">
-        <v>1025</v>
-      </c>
       <c r="F283" s="12">
         <v>0</v>
       </c>
@@ -13669,10 +13810,10 @@
         <v>0</v>
       </c>
       <c r="J283" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="K283" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -13680,16 +13821,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C284" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D284" s="10" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E284" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F284" s="12">
         <v>0</v>
@@ -13704,10 +13845,10 @@
         <v>0</v>
       </c>
       <c r="J284" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="K284" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -13721,10 +13862,10 @@
         <v>70</v>
       </c>
       <c r="D285" s="10" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E285" s="10" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F285" s="12">
         <v>0</v>
@@ -13739,10 +13880,10 @@
         <v>0</v>
       </c>
       <c r="J285" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="K285" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -13750,16 +13891,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C286" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D286" s="10" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E286" s="10" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F286" s="12">
         <v>0</v>
@@ -13774,10 +13915,10 @@
         <v>0</v>
       </c>
       <c r="J286" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="K286" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -13785,16 +13926,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>1043</v>
+        <v>1076</v>
       </c>
       <c r="C287" s="10" t="s">
         <v>170</v>
       </c>
       <c r="D287" s="10" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E287" s="10" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F287" s="12">
         <v>0</v>
@@ -13809,10 +13950,10 @@
         <v>0</v>
       </c>
       <c r="J287" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="K287" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -13820,41 +13961,57 @@
         <v>287</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C288" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="D288" s="10"/>
-      <c r="E288" s="10"/>
+      <c r="D288" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E288" s="10" t="s">
+        <v>1044</v>
+      </c>
       <c r="F288" s="12">
         <v>0</v>
       </c>
       <c r="G288" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H288" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288" s="12">
         <v>0</v>
       </c>
-      <c r="J288" s="9"/>
-      <c r="K288" s="7"/>
+      <c r="J288" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K288" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="5">
         <v>288</v>
       </c>
-      <c r="B289" s="10"/>
-      <c r="C289" s="10"/>
-      <c r="D289" s="10"/>
-      <c r="E289" s="10"/>
+      <c r="B289" t="s">
+        <v>69</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="D289" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E289" s="10" t="s">
+        <v>1045</v>
+      </c>
       <c r="F289" s="12">
         <v>0</v>
       </c>
       <c r="G289" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H289" s="12">
         <v>0</v>
@@ -13862,21 +14019,34 @@
       <c r="I289" s="12">
         <v>0</v>
       </c>
-      <c r="J289" s="9"/>
-      <c r="K289" s="7"/>
+      <c r="J289" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K289" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="5">
         <v>289</v>
       </c>
-      <c r="C290" s="10"/>
-      <c r="D290" s="10"/>
-      <c r="E290" s="10"/>
+      <c r="B290" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D290" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E290" s="10" t="s">
+        <v>1048</v>
+      </c>
       <c r="F290" s="12">
         <v>0</v>
       </c>
       <c r="G290" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H290" s="12">
         <v>0</v>
@@ -13884,21 +14054,34 @@
       <c r="I290" s="12">
         <v>0</v>
       </c>
-      <c r="J290" s="9"/>
-      <c r="K290" s="7"/>
+      <c r="J290" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K290" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="5">
         <v>290</v>
       </c>
-      <c r="C291" s="10"/>
-      <c r="D291" s="10"/>
-      <c r="E291" s="10"/>
+      <c r="B291" s="10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D291" s="10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E291" s="10" t="s">
+        <v>1050</v>
+      </c>
       <c r="F291" s="12">
         <v>0</v>
       </c>
       <c r="G291" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H291" s="12">
         <v>0</v>
@@ -13906,22 +14089,34 @@
       <c r="I291" s="12">
         <v>0</v>
       </c>
-      <c r="J291" s="9"/>
-      <c r="K291" s="7"/>
+      <c r="J291" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K291" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="5">
         <v>291</v>
       </c>
-      <c r="B292" s="10"/>
-      <c r="C292" s="10"/>
-      <c r="D292" s="10"/>
-      <c r="E292" s="10"/>
+      <c r="B292" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C292" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D292" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E292" s="10" t="s">
+        <v>1057</v>
+      </c>
       <c r="F292" s="12">
         <v>0</v>
       </c>
       <c r="G292" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H292" s="12">
         <v>0</v>
@@ -13929,22 +14124,34 @@
       <c r="I292" s="12">
         <v>0</v>
       </c>
-      <c r="J292" s="9"/>
-      <c r="K292" s="7"/>
+      <c r="J292" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K292" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="5">
         <v>292</v>
       </c>
-      <c r="B293" s="10"/>
-      <c r="C293" s="10"/>
-      <c r="D293" s="10"/>
-      <c r="E293" s="10"/>
+      <c r="B293" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D293" s="10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E293" s="10" t="s">
+        <v>1061</v>
+      </c>
       <c r="F293" s="12">
         <v>0</v>
       </c>
       <c r="G293" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H293" s="12">
         <v>0</v>
@@ -13952,17 +14159,29 @@
       <c r="I293" s="12">
         <v>0</v>
       </c>
-      <c r="J293" s="9"/>
-      <c r="K293" s="7"/>
+      <c r="J293" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K293" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="5">
         <v>293</v>
       </c>
-      <c r="B294" s="10"/>
-      <c r="C294" s="10"/>
-      <c r="D294" s="10"/>
-      <c r="E294" s="10"/>
+      <c r="B294" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C294" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D294" s="10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E294" s="10" t="s">
+        <v>1066</v>
+      </c>
       <c r="F294" s="12">
         <v>0</v>
       </c>
@@ -13970,22 +14189,34 @@
         <v>0</v>
       </c>
       <c r="H294" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294" s="12">
         <v>0</v>
       </c>
-      <c r="J294" s="9"/>
-      <c r="K294" s="7"/>
+      <c r="J294" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K294" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="5">
         <v>294</v>
       </c>
-      <c r="B295" s="10"/>
-      <c r="C295" s="10"/>
-      <c r="D295" s="10"/>
-      <c r="E295" s="10"/>
+      <c r="B295" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C295" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D295" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E295" s="10" t="s">
+        <v>1070</v>
+      </c>
       <c r="F295" s="12">
         <v>0</v>
       </c>
@@ -13993,50 +14224,74 @@
         <v>0</v>
       </c>
       <c r="H295" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295" s="12">
         <v>0</v>
       </c>
-      <c r="J295" s="9"/>
-      <c r="K295" s="7"/>
+      <c r="J295" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K295" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="5">
         <v>295</v>
       </c>
-      <c r="B296" s="10"/>
-      <c r="C296" s="10"/>
-      <c r="D296" s="10"/>
-      <c r="E296" s="10"/>
+      <c r="B296" s="10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C296" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D296" s="10" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E296" s="10" t="s">
+        <v>1073</v>
+      </c>
       <c r="F296" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G296" s="12">
         <v>0</v>
       </c>
       <c r="H296" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I296" s="12">
         <v>0</v>
       </c>
-      <c r="J296" s="9"/>
-      <c r="K296" s="7"/>
+      <c r="J296" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K296" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="5">
         <v>296</v>
       </c>
-      <c r="B297" s="10"/>
-      <c r="C297" s="10"/>
-      <c r="D297" s="10"/>
-      <c r="E297" s="10"/>
+      <c r="B297" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="C297" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="D297" s="10" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E297" s="10" t="s">
+        <v>1074</v>
+      </c>
       <c r="F297" s="12">
         <v>0</v>
       </c>
       <c r="G297" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H297" s="12">
         <v>0</v>
@@ -14044,68 +14299,104 @@
       <c r="I297" s="12">
         <v>0</v>
       </c>
-      <c r="J297" s="9"/>
-      <c r="K297" s="7"/>
+      <c r="J297" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K297" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="5">
         <v>297</v>
       </c>
-      <c r="B298" s="10"/>
-      <c r="C298" s="10"/>
-      <c r="D298" s="10"/>
-      <c r="E298" s="10"/>
+      <c r="B298" s="10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C298" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D298" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E298" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="F298" s="12">
         <v>0</v>
       </c>
       <c r="G298" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H298" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298" s="12">
         <v>0</v>
       </c>
-      <c r="J298" s="9"/>
-      <c r="K298" s="7"/>
+      <c r="J298" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K298" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="5">
         <v>298</v>
       </c>
-      <c r="B299" s="10"/>
-      <c r="C299" s="10"/>
-      <c r="D299" s="10"/>
-      <c r="E299" s="10"/>
+      <c r="B299" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C299" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D299" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E299" s="10" t="s">
+        <v>1079</v>
+      </c>
       <c r="F299" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G299" s="12">
         <v>0</v>
       </c>
       <c r="H299" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I299" s="12">
         <v>0</v>
       </c>
-      <c r="J299" s="9"/>
-      <c r="K299" s="7"/>
+      <c r="J299" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K299" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="5">
         <v>299</v>
       </c>
-      <c r="B300" s="10"/>
-      <c r="C300" s="10"/>
-      <c r="D300" s="10"/>
-      <c r="E300" s="10"/>
+      <c r="B300" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C300" s="10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D300" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E300" s="10" t="s">
+        <v>1082</v>
+      </c>
       <c r="F300" s="12">
         <v>0</v>
       </c>
       <c r="G300" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H300" s="12">
         <v>0</v>
@@ -14113,17 +14404,29 @@
       <c r="I300" s="12">
         <v>0</v>
       </c>
-      <c r="J300" s="9"/>
-      <c r="K300" s="7"/>
+      <c r="J300" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K300" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="5">
         <v>300</v>
       </c>
-      <c r="B301" s="10"/>
-      <c r="C301" s="10"/>
-      <c r="D301" s="10"/>
-      <c r="E301" s="10"/>
+      <c r="B301" s="10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C301" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D301" s="10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E301" s="10" t="s">
+        <v>1084</v>
+      </c>
       <c r="F301" s="12">
         <v>0</v>
       </c>
@@ -14131,13 +14434,17 @@
         <v>0</v>
       </c>
       <c r="H301" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301" s="12">
         <v>0</v>
       </c>
-      <c r="J301" s="9"/>
-      <c r="K301" s="7"/>
+      <c r="J301" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K301" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="5">

--- a/data/漢字.xlsx
+++ b/data/漢字.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Repositorios\kanjis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\Repositorios\kanjis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ACA9B3-3B89-45BC-8835-6812562F6B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B0D3D1-70BF-455B-9E52-291461C79CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="1142">
   <si>
     <t>次</t>
   </si>
@@ -3347,6 +3347,153 @@
   </si>
   <si>
     <t>2024年07月14日</t>
+  </si>
+  <si>
+    <t>つけ　（り）</t>
+  </si>
+  <si>
+    <t>点</t>
+  </si>
+  <si>
+    <t>信</t>
+  </si>
+  <si>
+    <t>Apodo</t>
+  </si>
+  <si>
+    <t>ゴウ</t>
+  </si>
+  <si>
+    <t>さけ　（り）、よびな</t>
+  </si>
+  <si>
+    <t>号</t>
+  </si>
+  <si>
+    <t>Fé, Fidelidad</t>
+  </si>
+  <si>
+    <t>橋</t>
+  </si>
+  <si>
+    <t>Puente</t>
+  </si>
+  <si>
+    <t>はし</t>
+  </si>
+  <si>
+    <t>Mancha, Punto decimal</t>
+  </si>
+  <si>
+    <t>つら　（なり）</t>
+  </si>
+  <si>
+    <t>連</t>
+  </si>
+  <si>
+    <t>１</t>
+  </si>
+  <si>
+    <t>案</t>
+  </si>
+  <si>
+    <t>つくえ</t>
+  </si>
+  <si>
+    <t>内</t>
+  </si>
+  <si>
+    <t>ナイ、ダイ</t>
+  </si>
+  <si>
+    <t>うち</t>
+  </si>
+  <si>
+    <t>説</t>
+  </si>
+  <si>
+    <t>セツ、ゼイ</t>
+  </si>
+  <si>
+    <t>と　（き）</t>
+  </si>
+  <si>
+    <t>Llevar, Liderar</t>
+  </si>
+  <si>
+    <t>Plan, Sugerencia</t>
+  </si>
+  <si>
+    <t>Adentro, Dentro</t>
+  </si>
+  <si>
+    <t>Teroría, Explicación</t>
+  </si>
+  <si>
+    <t>紹</t>
+  </si>
+  <si>
+    <t>Introducir, Heredar</t>
+  </si>
+  <si>
+    <t>介</t>
+  </si>
+  <si>
+    <t>Mediar, Preocupare por</t>
+  </si>
+  <si>
+    <t>特</t>
+  </si>
+  <si>
+    <t>Especial</t>
+  </si>
+  <si>
+    <t>トク</t>
+  </si>
+  <si>
+    <t>銀</t>
+  </si>
+  <si>
+    <t>場</t>
+  </si>
+  <si>
+    <t>菓</t>
+  </si>
+  <si>
+    <t>配</t>
+  </si>
+  <si>
+    <t>ギン</t>
+  </si>
+  <si>
+    <t>しろがね</t>
+  </si>
+  <si>
+    <t>ば</t>
+  </si>
+  <si>
+    <t>ジョウ、 チョウ</t>
+  </si>
+  <si>
+    <t>Plata</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Dustribuir</t>
+  </si>
+  <si>
+    <t>Dulces</t>
+  </si>
+  <si>
+    <t>ハイ</t>
+  </si>
+  <si>
+    <t>くば　（り）</t>
+  </si>
+  <si>
+    <t>2024年08月18日</t>
   </si>
 </sst>
 </file>
@@ -3897,8 +4044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A301" sqref="A301"/>
+    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A316" sqref="A316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -13988,7 +14135,7 @@
         <v>1062</v>
       </c>
       <c r="K288" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -14023,7 +14170,7 @@
         <v>1062</v>
       </c>
       <c r="K289" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -14198,7 +14345,7 @@
         <v>1092</v>
       </c>
       <c r="K294" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -14233,7 +14380,7 @@
         <v>1092</v>
       </c>
       <c r="K295" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -14268,7 +14415,7 @@
         <v>1092</v>
       </c>
       <c r="K296" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -14303,7 +14450,7 @@
         <v>1092</v>
       </c>
       <c r="K297" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -14338,7 +14485,7 @@
         <v>1092</v>
       </c>
       <c r="K298" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -14373,7 +14520,7 @@
         <v>1092</v>
       </c>
       <c r="K299" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -14408,7 +14555,7 @@
         <v>1092</v>
       </c>
       <c r="K300" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -14443,40 +14590,60 @@
         <v>1092</v>
       </c>
       <c r="K301" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="5">
         <v>301</v>
       </c>
-      <c r="B302" s="10"/>
-      <c r="C302" s="10"/>
-      <c r="D302" s="10"/>
-      <c r="E302" s="10"/>
+      <c r="B302" s="10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C302" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="D302" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E302" s="10" t="s">
+        <v>1094</v>
+      </c>
       <c r="F302" s="12">
         <v>0</v>
       </c>
       <c r="G302" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H302" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302" s="12">
         <v>0</v>
       </c>
-      <c r="J302" s="9"/>
-      <c r="K302" s="7"/>
+      <c r="J302" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K302" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="5">
         <v>302</v>
       </c>
-      <c r="B303" s="10"/>
-      <c r="C303" s="10"/>
-      <c r="D303" s="10"/>
-      <c r="E303" s="10"/>
+      <c r="B303" t="s">
+        <v>69</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D303" s="10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E303" s="10" t="s">
+        <v>1095</v>
+      </c>
       <c r="F303" s="12">
         <v>0</v>
       </c>
@@ -14484,22 +14651,34 @@
         <v>0</v>
       </c>
       <c r="H303" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I303" s="12">
         <v>0</v>
       </c>
-      <c r="J303" s="9"/>
-      <c r="K303" s="7"/>
+      <c r="J303" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K303" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="5">
         <v>303</v>
       </c>
-      <c r="B304" s="10"/>
-      <c r="C304" s="10"/>
-      <c r="D304" s="10"/>
-      <c r="E304" s="10"/>
+      <c r="B304" s="10" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C304" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D304" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E304" s="10" t="s">
+        <v>1099</v>
+      </c>
       <c r="F304" s="12">
         <v>0</v>
       </c>
@@ -14507,22 +14686,34 @@
         <v>0</v>
       </c>
       <c r="H304" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304" s="12">
         <v>0</v>
       </c>
-      <c r="J304" s="9"/>
-      <c r="K304" s="7"/>
+      <c r="J304" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K304" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="5">
         <v>304</v>
       </c>
-      <c r="B305" s="10"/>
-      <c r="C305" s="10"/>
-      <c r="D305" s="10"/>
-      <c r="E305" s="10"/>
+      <c r="B305" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C305" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D305" s="10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E305" s="10" t="s">
+        <v>1101</v>
+      </c>
       <c r="F305" s="12">
         <v>0</v>
       </c>
@@ -14530,27 +14721,39 @@
         <v>0</v>
       </c>
       <c r="H305" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" s="12">
         <v>0</v>
       </c>
-      <c r="J305" s="9"/>
-      <c r="K305" s="7"/>
+      <c r="J305" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K305" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="5">
         <v>305</v>
       </c>
-      <c r="B306" s="10"/>
-      <c r="C306" s="10"/>
-      <c r="D306" s="10"/>
-      <c r="E306" s="10"/>
+      <c r="B306" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C306" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="D306" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E306" s="10" t="s">
+        <v>1106</v>
+      </c>
       <c r="F306" s="12">
         <v>0</v>
       </c>
-      <c r="G306" s="12">
-        <v>0</v>
+      <c r="G306" s="12" t="s">
+        <v>1107</v>
       </c>
       <c r="H306" s="12">
         <v>0</v>
@@ -14558,17 +14761,29 @@
       <c r="I306" s="12">
         <v>0</v>
       </c>
-      <c r="J306" s="9"/>
-      <c r="K306" s="7"/>
+      <c r="J306" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K306" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="5">
         <v>306</v>
       </c>
-      <c r="B307" s="10"/>
-      <c r="C307" s="10"/>
-      <c r="D307" s="10"/>
-      <c r="E307" s="10"/>
+      <c r="B307" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C307" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D307" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E307" s="10" t="s">
+        <v>1108</v>
+      </c>
       <c r="F307" s="12">
         <v>0</v>
       </c>
@@ -14576,22 +14791,34 @@
         <v>0</v>
       </c>
       <c r="H307" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307" s="12">
         <v>0</v>
       </c>
-      <c r="J307" s="9"/>
-      <c r="K307" s="7"/>
+      <c r="J307" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K307" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="5">
         <v>307</v>
       </c>
-      <c r="B308" s="10"/>
-      <c r="C308" s="10"/>
-      <c r="D308" s="10"/>
-      <c r="E308" s="10"/>
+      <c r="B308" s="10" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C308" s="10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D308" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E308" s="10" t="s">
+        <v>1110</v>
+      </c>
       <c r="F308" s="12">
         <v>0</v>
       </c>
@@ -14599,22 +14826,34 @@
         <v>0</v>
       </c>
       <c r="H308" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308" s="12">
         <v>0</v>
       </c>
-      <c r="J308" s="9"/>
-      <c r="K308" s="7"/>
+      <c r="J308" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K308" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="5">
         <v>308</v>
       </c>
-      <c r="B309" s="10"/>
-      <c r="C309" s="10"/>
-      <c r="D309" s="10"/>
-      <c r="E309" s="10"/>
+      <c r="B309" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C309" s="10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D309" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E309" s="10" t="s">
+        <v>1113</v>
+      </c>
       <c r="F309" s="12">
         <v>0</v>
       </c>
@@ -14622,22 +14861,34 @@
         <v>0</v>
       </c>
       <c r="H309" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309" s="12">
         <v>0</v>
       </c>
-      <c r="J309" s="9"/>
-      <c r="K309" s="7"/>
+      <c r="J309" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K309" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="5">
         <v>309</v>
       </c>
-      <c r="B310" s="10"/>
-      <c r="C310" s="10"/>
-      <c r="D310" s="10"/>
-      <c r="E310" s="10"/>
+      <c r="B310" t="s">
+        <v>69</v>
+      </c>
+      <c r="C310" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D310" s="10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E310" s="10" t="s">
+        <v>1120</v>
+      </c>
       <c r="F310" s="12">
         <v>0</v>
       </c>
@@ -14645,22 +14896,34 @@
         <v>0</v>
       </c>
       <c r="H310" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" s="12">
         <v>0</v>
       </c>
-      <c r="J310" s="9"/>
-      <c r="K310" s="7"/>
+      <c r="J310" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K310" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="5">
         <v>310</v>
       </c>
-      <c r="B311" s="10"/>
-      <c r="C311" s="10"/>
-      <c r="D311" s="10"/>
-      <c r="E311" s="10"/>
+      <c r="B311" t="s">
+        <v>69</v>
+      </c>
+      <c r="C311" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D311" s="10" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E311" s="10" t="s">
+        <v>1122</v>
+      </c>
       <c r="F311" s="12">
         <v>0</v>
       </c>
@@ -14668,22 +14931,34 @@
         <v>0</v>
       </c>
       <c r="H311" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I311" s="12">
         <v>0</v>
       </c>
-      <c r="J311" s="9"/>
-      <c r="K311" s="7"/>
+      <c r="J311" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K311" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="5">
         <v>311</v>
       </c>
-      <c r="B312" s="10"/>
-      <c r="C312" s="10"/>
-      <c r="D312" s="10"/>
-      <c r="E312" s="10"/>
+      <c r="B312" t="s">
+        <v>69</v>
+      </c>
+      <c r="C312" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D312" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E312" s="10" t="s">
+        <v>1124</v>
+      </c>
       <c r="F312" s="12">
         <v>0</v>
       </c>
@@ -14691,22 +14966,34 @@
         <v>0</v>
       </c>
       <c r="H312" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I312" s="12">
         <v>0</v>
       </c>
-      <c r="J312" s="9"/>
-      <c r="K312" s="7"/>
+      <c r="J312" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K312" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="5">
         <v>312</v>
       </c>
-      <c r="B313" s="10"/>
-      <c r="C313" s="10"/>
-      <c r="D313" s="10"/>
-      <c r="E313" s="10"/>
+      <c r="B313" s="10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C313" s="10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D313" s="10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E313" s="10" t="s">
+        <v>1127</v>
+      </c>
       <c r="F313" s="12">
         <v>0</v>
       </c>
@@ -14714,22 +15001,34 @@
         <v>0</v>
       </c>
       <c r="H313" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313" s="12">
         <v>0</v>
       </c>
-      <c r="J313" s="9"/>
-      <c r="K313" s="7"/>
+      <c r="J313" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K313" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="5">
         <v>313</v>
       </c>
-      <c r="B314" s="10"/>
-      <c r="C314" s="10"/>
-      <c r="D314" s="10"/>
-      <c r="E314" s="10"/>
+      <c r="B314" s="10" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C314" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D314" s="10" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E314" s="10" t="s">
+        <v>1128</v>
+      </c>
       <c r="F314" s="12">
         <v>0</v>
       </c>
@@ -14737,27 +15036,39 @@
         <v>0</v>
       </c>
       <c r="H314" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I314" s="12">
         <v>0</v>
       </c>
-      <c r="J314" s="9"/>
-      <c r="K314" s="7"/>
+      <c r="J314" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K314" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="5">
         <v>314</v>
       </c>
-      <c r="B315" s="10"/>
-      <c r="C315" s="10"/>
-      <c r="D315" s="10"/>
-      <c r="E315" s="10"/>
+      <c r="B315" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C315" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D315" s="10" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E315" s="10" t="s">
+        <v>1130</v>
+      </c>
       <c r="F315" s="12">
         <v>0</v>
       </c>
       <c r="G315" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H315" s="12">
         <v>0</v>
@@ -14765,17 +15076,29 @@
       <c r="I315" s="12">
         <v>0</v>
       </c>
-      <c r="J315" s="9"/>
-      <c r="K315" s="7"/>
+      <c r="J315" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K315" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="5">
         <v>315</v>
       </c>
-      <c r="B316" s="10"/>
-      <c r="C316" s="10"/>
-      <c r="D316" s="10"/>
-      <c r="E316" s="10"/>
+      <c r="B316" t="s">
+        <v>69</v>
+      </c>
+      <c r="C316" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D316" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E316" s="10" t="s">
+        <v>1129</v>
+      </c>
       <c r="F316" s="12">
         <v>0</v>
       </c>
@@ -14783,13 +15106,17 @@
         <v>0</v>
       </c>
       <c r="H316" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I316" s="12">
         <v>0</v>
       </c>
-      <c r="J316" s="9"/>
-      <c r="K316" s="7"/>
+      <c r="J316" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K316" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="5">

--- a/data/漢字.xlsx
+++ b/data/漢字.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\Repositorios\kanjis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B0D3D1-70BF-455B-9E52-291461C79CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C374BDAF-C8BD-45CA-993F-FB62877CAFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="1148">
   <si>
     <t>次</t>
   </si>
@@ -3385,9 +3385,6 @@
     <t>Mancha, Punto decimal</t>
   </si>
   <si>
-    <t>つら　（なり）</t>
-  </si>
-  <si>
     <t>連</t>
   </si>
   <si>
@@ -3481,9 +3478,6 @@
     <t>Ubicación</t>
   </si>
   <si>
-    <t>Dustribuir</t>
-  </si>
-  <si>
     <t>Dulces</t>
   </si>
   <si>
@@ -3494,6 +3488,30 @@
   </si>
   <si>
     <t>2024年08月18日</t>
+  </si>
+  <si>
+    <t>まじ.わ　（り）、 まじ.え 　（り）</t>
+  </si>
+  <si>
+    <t>Mezclarse</t>
+  </si>
+  <si>
+    <t>交</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
+  </si>
+  <si>
+    <t>Distribuir</t>
+  </si>
+  <si>
+    <t>差</t>
+  </si>
+  <si>
+    <t>さ     （し）</t>
+  </si>
+  <si>
+    <t>つ.れ（り）</t>
   </si>
 </sst>
 </file>
@@ -4044,8 +4062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A316" sqref="A316"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E318" sqref="E318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -14622,7 +14640,7 @@
         <v>0</v>
       </c>
       <c r="J302" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="K302" s="7">
         <v>1</v>
@@ -14657,7 +14675,7 @@
         <v>0</v>
       </c>
       <c r="J303" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="K303" s="7">
         <v>1</v>
@@ -14692,7 +14710,7 @@
         <v>0</v>
       </c>
       <c r="J304" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="K304" s="7">
         <v>1</v>
@@ -14727,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="J305" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="K305" s="7">
         <v>1</v>
@@ -14738,23 +14756,23 @@
         <v>305</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>1105</v>
+        <v>1147</v>
       </c>
       <c r="C306" s="10" t="s">
         <v>866</v>
       </c>
       <c r="D306" s="10" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E306" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F306" s="12">
+        <v>0</v>
+      </c>
+      <c r="G306" s="12" t="s">
         <v>1106</v>
       </c>
-      <c r="F306" s="12">
-        <v>0</v>
-      </c>
-      <c r="G306" s="12" t="s">
-        <v>1107</v>
-      </c>
       <c r="H306" s="12">
         <v>0</v>
       </c>
@@ -14762,7 +14780,7 @@
         <v>0</v>
       </c>
       <c r="J306" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="K306" s="7">
         <v>1</v>
@@ -14773,16 +14791,16 @@
         <v>306</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C307" s="10" t="s">
         <v>341</v>
       </c>
       <c r="D307" s="10" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F307" s="12">
         <v>0</v>
@@ -14797,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="J307" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="K307" s="7">
         <v>1</v>
@@ -14808,16 +14826,16 @@
         <v>307</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D308" s="10" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F308" s="12">
         <v>0</v>
@@ -14832,7 +14850,7 @@
         <v>0</v>
       </c>
       <c r="J308" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="K308" s="7">
         <v>1</v>
@@ -14843,16 +14861,16 @@
         <v>308</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D309" s="10" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F309" s="12">
         <v>0</v>
@@ -14867,7 +14885,7 @@
         <v>0</v>
       </c>
       <c r="J309" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="K309" s="7">
         <v>1</v>
@@ -14884,10 +14902,10 @@
         <v>348</v>
       </c>
       <c r="D310" s="10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F310" s="12">
         <v>0</v>
@@ -14902,7 +14920,7 @@
         <v>0</v>
       </c>
       <c r="J310" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="K310" s="7">
         <v>1</v>
@@ -14919,10 +14937,10 @@
         <v>64</v>
       </c>
       <c r="D311" s="10" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F311" s="12">
         <v>0</v>
@@ -14937,7 +14955,7 @@
         <v>0</v>
       </c>
       <c r="J311" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="K311" s="7">
         <v>1</v>
@@ -14951,13 +14969,13 @@
         <v>69</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D312" s="10" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E312" s="10" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F312" s="12">
         <v>0</v>
@@ -14972,7 +14990,7 @@
         <v>0</v>
       </c>
       <c r="J312" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="K312" s="7">
         <v>1</v>
@@ -14983,16 +15001,16 @@
         <v>312</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D313" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E313" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F313" s="12">
         <v>0</v>
@@ -15007,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="J313" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="K313" s="7">
         <v>1</v>
@@ -15018,16 +15036,16 @@
         <v>313</v>
       </c>
       <c r="B314" s="10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C314" s="10" t="s">
         <v>1133</v>
       </c>
-      <c r="C314" s="10" t="s">
-        <v>1134</v>
-      </c>
       <c r="D314" s="10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E314" s="10" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F314" s="12">
         <v>0</v>
@@ -15042,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="J314" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="K314" s="7">
         <v>1</v>
@@ -15053,31 +15071,31 @@
         <v>314</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C315" s="10" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D315" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E315" s="10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F315" s="12">
+        <v>0</v>
+      </c>
+      <c r="G315" s="12">
+        <v>1</v>
+      </c>
+      <c r="H315" s="12">
+        <v>0</v>
+      </c>
+      <c r="I315" s="12">
+        <v>0</v>
+      </c>
+      <c r="J315" s="9" t="s">
         <v>1139</v>
-      </c>
-      <c r="D315" s="10" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E315" s="10" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F315" s="12">
-        <v>0</v>
-      </c>
-      <c r="G315" s="12">
-        <v>1</v>
-      </c>
-      <c r="H315" s="12">
-        <v>0</v>
-      </c>
-      <c r="I315" s="12">
-        <v>0</v>
-      </c>
-      <c r="J315" s="9" t="s">
-        <v>1141</v>
       </c>
       <c r="K315" s="7">
         <v>1</v>
@@ -15094,10 +15112,10 @@
         <v>73</v>
       </c>
       <c r="D316" s="10" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E316" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F316" s="12">
         <v>0</v>
@@ -15112,7 +15130,7 @@
         <v>0</v>
       </c>
       <c r="J316" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="K316" s="7">
         <v>1</v>
@@ -15122,47 +15140,71 @@
       <c r="A317" s="5">
         <v>316</v>
       </c>
-      <c r="B317" s="10"/>
-      <c r="C317" s="10"/>
-      <c r="D317" s="10"/>
-      <c r="E317" s="10"/>
+      <c r="B317" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D317" s="10" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E317" s="10" t="s">
+        <v>1142</v>
+      </c>
       <c r="F317" s="12">
         <v>0</v>
       </c>
       <c r="G317" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H317" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I317" s="12">
         <v>0</v>
       </c>
-      <c r="J317" s="9"/>
-      <c r="K317" s="7"/>
+      <c r="J317" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K317" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="5">
         <v>317</v>
       </c>
-      <c r="B318" s="10"/>
-      <c r="C318" s="10"/>
-      <c r="D318" s="10"/>
-      <c r="E318" s="10"/>
+      <c r="B318" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C318" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D318" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E318" s="10" t="s">
+        <v>1145</v>
+      </c>
       <c r="F318" s="12">
         <v>0</v>
       </c>
       <c r="G318" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H318" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318" s="12">
         <v>0</v>
       </c>
-      <c r="J318" s="9"/>
-      <c r="K318" s="7"/>
+      <c r="J318" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K318" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="5">
